--- a/amplocator/Microcaecilia_locator_predictions.xlsx
+++ b/amplocator/Microcaecilia_locator_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,281 +458,7621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XP_030045394.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+          <t>XP_030041419.1 C-C motif chemokine 4-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>------------KGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>MKLCLTALCVLLLAAFCSEVFSAPTGADIPTSCCFSYTSRKLPRGHVQDYFVTSSMCAQPAIIFITRKGREVCANPDEEWVENYVNDLELN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>------------KGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>------------------------TGADIPTSCCFSYTSRKLPRGHVQDYFVTSSMCAQPAIIFITRKGREVCANPD--------------</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7363914847373962</v>
+        <v>0.7699999809265137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XP_030045402.1 histone H4 [Microcaecilia unicolor]</t>
+          <t>XP_030041438.1 C-C motif chemokine 4-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-SGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKR-GRTLYGFGG</t>
+          <t>MKLCLTVLCVTLLAAFCSQVLSAPAGSDPTSCCFSYASRQIPRKHVREYYYTSSRCTQPAVIFVTWRNREICANPETKWVQDHVNYLEMNSKQLKPSNI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-SGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKR-GRTLYGFGG</t>
+          <t>-----------------------PAGSDPTSCCFSYASRQIPRKHVREYYYTSSRCTQPAVIFVTWRNREICANPETKWVQDHVNYLEMNSKQLKPSN-</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7971758246421814</v>
+        <v>0.8500000238418579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XP_030045406.1 histone H4 [Microcaecilia unicolor]</t>
+          <t>XP_030041503.1 40S ribosomal protein S19 [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>------GGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQG-TLYGFGG</t>
+          <t>MPGVTVKDVNQQEFVRALSAFLKKSGKLKVPEWVDTVKLAKHKELAPYDENWFYTRAASTARHLYLRGGAGVGSMTKIYGGRQRNGVMPSHFSRGSKSVARRVLQALEGLKMVEKDPNGGRKLTPQGQRDLDRIAGQVAAASKKH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-------GKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQG-TLYGFGG</t>
+          <t>--------------------FLKKSGKLKVPEWVDTVKLAKHKELAPYDENWFYTRAASTARHLYLRGGAGVGSMTKIYGGRQRNGVMPSHFSRGSKSVARRVLQALEGLKMVEKDPNGGRKLTPQGQRDLDRIAGQVAAASKKH</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7041760683059692</v>
+        <v>0.7699999809265137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XP_030045727.1 late histone H2B.L4-like [Microcaecilia unicolor]</t>
+          <t>XP_030041612.1 C-C motif chemokine 4-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>---------------------KGKRRETYSVYIYKVLKQVHPDTGISSKAMSIMNSFVNDVFERIATEASRLAQYNQRATITSREVQTAVRLLLPGELAK--VSEGTKAVTKYTSSK</t>
+          <t>MKLCQIACCVLLLTSFSQVLSAPVGADIPASCCFSYTSRRIPQSHVKAYFSTNSLCSQAAIIFVTRKGREVCANPEETWVQSYINGLKPK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-----------------------------------V---VHPDTGISSKAMSIMNSFVNDVFERIATEASRLAQYNQRATITSREVQTAVRLLLPGE-----VSEGTKAVTKYTSSK</t>
+          <t>----------------------PVGADIPASCCFSYTSRRIPQSHVKAYFSTNSLCSQAAIIFVTRKGREVCANPEETWVQSYINGLKPK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5231374502182007</v>
+        <v>0.8899999856948853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XP_030060897.1 histone H4 [Microcaecilia unicolor]</t>
+          <t>XP_030041930.1 trypsin-3-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>--------------GAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+          <t>MIIVAGEHSLSMFEGTEQLFRPIKMVTHPDYSSVSRNADIMLIKLNRPALYNAFVSVVPLPKQGAAMNEGRFCQVFGWGYTSTLGGKTSDTLRSVKLPIVSKWKCNGTAAYAGHITNNMICAGFSVGGKDACQGDSGGPLVCDGRLFGIVSWGNSCASPRYPGVYTAVSSFRKWIYKTIG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>------------------------D--QGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+          <t>---------------------------------------------------------V-----GAAMNEGRFCQVFGWGYTSTLGGKTSDTLRSVKLPIVSKWKCNGTAAYAGHITNNMICAGFSVGGKDACQGDSGGPLVCDGRLFGIVSWGNSCASPRYPGVYTAVSSFRKWIYKTI-</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5967270135879517</v>
+        <v>0.800000011920929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XP_030062491.1 histone H2A-like [Microcaecilia unicolor]</t>
+          <t>XP_030041931.1 trypsin-3-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>------TGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGA-AP-Y-------------------------TRIIPRHLQL-V-N-------LGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQS---</t>
+          <t>MIIVAGEHSLSMFEGTEQLFRPIKMVTHPDYSSVSRNADIMLIKLNRPALYNAFVSVVPLPKQGAAMNEGRFCQVFGWGYTSTLGGKTSDTLRSVKLPIVSKWKCNGTAAYAGHITNNMICAGFSVGGKDACQGDSGGPLVCDGRLFGIVSWGNSCASPRYPGVYTAVSSFRKWIYKTIG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>------------------------Q-PVGRVHRLLRKGNYA--------------------------------------IPRHLQL-V-N-------LGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQS---</t>
+          <t>---------------------------------------------------------V-----GAAMNEGRFCQVFGWGYTSTLGGKTSDTLRSVKLPIVSKWKCNGTAAYAGHITNNMICAGFSVGGKDACQGDSGGPLVCDGRLFGIVSWGNSCASPRYPGVYTAVSSFRKWIYKTI-</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5311766862869263</v>
+        <v>0.8100000023841858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XP_030067898.1 WAP four-disulfide core domain protein 3-like isoform X1 [Microcaecilia unicolor]</t>
+          <t>XP_030042278.1 C-type natriuretic peptide-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>--------------------------------------RNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTGTC---P----------------E-AGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+          <t>MRASLWVFFLLSLVLCVQSKPVQPRRHHKVPVDLLREDSRALVSVEQTPATSQQTSPEPRPLREAPADSTATESTSPSSNRGWLRFFNDFMNNQKKFRGRTKKMPSQGCFGAKLDRIGALSGFGC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>----------------------------------------------------------------------------------------------------------------PGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+          <t>---------------------------------------------------------------------------------GWLRFFNDFMNNQKKFRGRTKKMPSQGCFGAKLDRIGALSGFGC</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5615108609199524</v>
+        <v>0.8199999928474426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XP_030067900.1 perlwapin-like isoform X3 [Microcaecilia unicolor]</t>
+          <t>XP_030042280.1 bone marrow proteoglycan-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>------------------------------------------KTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTGTCPAQPQKTS---------------GTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+          <t>MKVYMILLLLLLGTTSAQESGEEDLEELGDNEMDLLTEEESTAEEEEEEETTPLASDCQEECGEKKILIESSKLCNGSETCQYLIILCHQTFQQAQRTCRCHKGQLTSISNQCVNQSILSRVFAQNTRAPSFWIGLQKSSGHQRFRWVDGRCLTYQNWANGEPRRCGQQCVTMDKRSGKWCTSNCNARRPFICRI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>--------------------------------------------------------C----------------------T-T---------------------------------SGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+          <t>-------------------------------------------------------------------------LCN----CQYLIILCHQTFQQAQRTCRCHKGQLTSISNQCVNQSILSRVFAQNTRAPSFWIGLQKSSGHQRFRWVDGRCLTYQNWANGEPRRCGQQCVTMDKRSGKWCTSNCNARRPFICRI</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5215655565261841</v>
+        <v>0.7799999713897705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>XP_030068618.1 hemoglobin subunit beta-2-like [Microcaecilia unicolor]</t>
+          <t>XP_030042287.1 bone marrow proteoglycan-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-------------------------------------WCQRYFTSFGNLGSEDSICHNAQVKAHGLKVLSSIAEAANHLSDIKGFYTKLSKHHSEKLHVDPANFMLFARILLCTLARHCPKLFDADVQHACNKYLRVCADALGKQYH</t>
+          <t>MKVYMILLLLLLGTTSAQESGEEDLEELGDNEMDLLTEEESTAEEEEEEETTPLASDCQEECGEKKILIESSKLCNGSETCQYLIILCHQTFQQAQRTCRCHKGQLTSISNQCVNQSILSRVFAQNTRAPSFWIGLQKSSGHQRFRWVDGRCLTYQNWANGEPRRCGQQCVTMDKRSGKWCTSNCNARRPFICRI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-----------------------------------------YFTSFGNLGSEDSICHNAQVKAHGLKVLSSIAEAANHLSDIKGFYTKLSKHHSEKLHVDPANFMLFARILLCTLARHCPKLFDADVQHACNKYLRVCADALGKQYH</t>
+          <t>------------------------------------------------------------------ILIE-SKLCN-SETCQYLIILCHQTFQQAQRTCRCHKGQLTSISNQCVNQSILSRVFAQNTRAPSFWIGLQKSSGHQRFRWVDGRCLTYQNWANGEPRRCGQQCVTMDKRSGKWCTSNCNARRPFICRI</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5836328864097595</v>
+        <v>0.7900000214576721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XP_030070914.1 WAP four-disulfide core domain protein 2-like [Microcaecilia unicolor]</t>
+          <t>XP_030042296.1 pulmonary surfactant-associated protein C-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>--------------------------------------------HDIQCSKDKKCCKTACGGTACRKPFFPNRSEKPGRCPDPDEYGELGFGICEEMCIQDTECSGDLKCCKTACGVTSCLKPQTFPNRPASNRGRCPYNWKPCRTPFFPSVSQCQGDWQCQMNQKCCSVGCDKQCVNIWAGLPIEY</t>
+          <t>METGSKTDLVDTPPVYSFSPKTWSDRKRKTVIVSIVVVLLALMTVAAILIGIKLTQDHTEKIFQITHNENGKETQETTTINKKGGVATFYVNEDNTSATVVYDYTNGVIGIKGDPSTCYVTKMDKNKVPSLDSISKKYQALQASVSGSNSVQKQDAYFTAQKEPVADRSMLGTTINVLCSNNPIYWTQETSGDTKSAARRACLRIRVCNRYYCYVFLRCF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>--------------------------------------------------------------TACRKPFFPNRSEKPGRCPDPDEYGELGFGICEEMCIQDTECSGDLKCCKTACGVTSCLKPQTFPNRPASNRGRCPYNWKPCRTPFFPSVSQCQGDWQCQMNQKCCSVGCDKQCVNIWAGLPIEY</t>
+          <t>-------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------RACLRIRVCNRYYCYVFLRCF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5777918696403503</v>
+        <v>0.8700000047683716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XP_030073497.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+          <t>XP_030042517.1 sialic acid-binding lectin-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>--------------------------GKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>MRAFQLLLSPLPCLSLLLALIFPSTSQNYDEFRKKHIDSRTNKKHNNQYCNTIMEQKINRDTGTCRKVNTFIHAPEKVVVILCRRIPNAMKTSTKKFSLTICKLQRKRGQRCTYKAKNEFRRIEIKCEDSLPVHFCGDVPPVKDKHWRERGGGWELLSVSDQIKCE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>------------------------------------------YKVL------TGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>----------------------------------KHIDSRTNKKHNNQYCNTIMEQKINRDTGTCRKVNTFIHAPEKVVVILCRRIPNAMKTSTKKFSLTICKLQRKRGQRCTYKAKNEFRRIEIKCEDSLPVHFCGDVPPVKDKHWRERGGGWELLSVSDQIKC-</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5760449767112732</v>
+        <v>0.8299999833106995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XP_030076050.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+          <t>XP_030042792.1 osteocalcin [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-----------------------KKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>MRPLTLVTLLALAVICLCHRDADNSNGAPDAHNTEAIASNPASANAFVKRNKRQYNPNSYGANAVGPDPLEPYREVCELSPDCDELADQIGFEEAYRRFYGPL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-----------------------------------ESYAI-VYKV---VHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>----------------------DNSNGAP-------I-SNP-S-NAFVK-NKRQYNPNSYGANAVGPDPLE----------------DQIGF---YRRFYGP-</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6094438433647156</v>
+        <v>0.5699999928474426</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XP_030076051.1 histone H2B 1.1 [Microcaecilia unicolor]</t>
+          <t>XP_030042855.1 lectin-like [Microcaecilia unicolor]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>------------------------------RRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>MMRKITELMLILAVVFTAGQAADEESWCTTGWSCFFSAYYKFVSTPLSWVEAELHCQKLIPGGHLASLHSLEEQQFVLKLSKNNVIWIGASDSYKDRTFFWTDGSAWDYENWHSGEPNNFHGTREACVNSYYFSDDTWNDFICTAKFPFTCKVTGPSCLTNQIVG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>--------------------------------------------------------SKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+          <t>------------------------------GWSCFFSAYYK--------------------------------------------IWIGASDSYKDRTFFWTDGSAWDYENWHSGEPNNFHGTREACVNSYYFSDDTWNDFICTAKFPFTCKVTGPSCLTNQIV-</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5314784646034241</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>XP_030042874.1 killer cell lectin-like receptor subfamily F member 1 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MQSENYYTTLNFDVKKRPHPGMSQGMMEAAQRCPRWHRIALGIGGAGHLLLLGAVIALSLRGFWYHPTGCNGEGPSINTSDLHSSQCLQNQGTHRESKNITAAVSAFTGCAGDWLHHGGKCYFFSMTLKSWSDSRDDCAKRDAQLLEIQDASELVFIHNSRKAKNRAWIGLRITAPGHQWKWVTGLAVDTVRII</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------------------------------------------------------------------------------------SRKAKNRAWIGLRITAPGHQWKWVTGLAVDTVRII</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>XP_030042887.1 killer cell lectin-like receptor subfamily F member 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MQSENYYTTLNFDVKKRPHPGMSQGMMEAAQRCPHWHRIALGIGGAGHLLLLGAVIALSLRGFWYHPTGCNGEGPSINTSDLDSSQCLQNQGTHRESKNITAAVSAFTGCAGDWLHHGGKCYFFSMTLKSWSDSRDDCAKRDAQLLEIQDASELVFIHNSRKAKNRAWIGLRITTPGINGDG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-------------------------------RCPHWHRIALGIGGAGHLLL---------RGFWYHPTGCNGEGPSINTSDLDSSQCLQNQGTHRE--NI-AAVSAFTGCAGDWLHHGGKCYFFSMTLKSWSDS-DD------Q---------LVFIHNSRKAKNRAWIGLRITTPGINGD-</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>XP_030043127.1 lectin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MMRKITELMLILAVVFTAGQAADEESWCTTGWSCFFSAYYKFVSTPLSWVEAELHCQKLIPGGHLASLHSLEEQQFVLKLSKNNVIWIGASDSYKDRTFFWTDGSAWDYENWHSGEPNNFHGTREACVNSYYFSDDTWNDFICTAKFPFTCKVTGPSCLTNQIVG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>------------------------------GWSCFFSAY-K--------------------------------------------IWIGASDSYKDRTFFWTDGSAWDYENWHSGEPNNFHGTREACVNSYYFSDDTWNDFICTAKFPFTCKVTGPSCLTNQIV-</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>XP_030043157.1 stress-associated endoplasmic reticulum protein 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MAGVQRMKVANEKHSKSITQRGNLHHRAAAPPEEKAPVGPWLLALFVFVVCGSAIFQLIQSIRMGG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>----------------------------------------WLLALFVFVVC-SAIFQLIQSIRMG-</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>XP_030043505.1 trypsin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MKGFLHKETYRDQVQRRIMKFLLLAAFLGAVVAFPIDDYDKIVGGYTCGRNALPYQVSLNAGYHFCGGSLINSQWVVSAAHCYNTRINVRLGEHNIATSEGTEQFIDSAKVIRHPSYNSRTLDNDIMLIKLSSAATLNAYVQPVALPSGCATVGTQCLISGWGNTLSSGTKYPDLLQCLNAPILSSSECINSYPGQITSNMFCAGFLEGGKDSCQNDSGGPVVCNRELQGVVSWGFGCAQKNYPGVYVKVCNYNSWIKNTISTN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------------------------------------------------------------------GCATVGTQCLISGWGNTLSSGTKYPDLLQCLNAPILSSSECINSYPGQITSNMFCAGFLEGGKDSCQNDSGGPVVCNRELQGVVSWGFGCAQKNYPGVYVKVCNYNSWIKNTISTN</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>XP_030043506.1 anionic trypsin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MKGLLLFALLGAAVAFPLEDDDKIVGGYTCSVPYQVSLNSGYHFCGGSLINNLWVVSAAHCYMSRIQVRLGEHDIETEEGTEQFINSALVIQHPKYNSWYLDNDIMLIKLSTPAILGPHVQVINLPSQCPVPGAQCLISGWGNTLSNGANYPDLLQCVVAPVLTDEECKNAYPGQITENMVCVGYLEGGKDSCQGDSGGPVVSDGELQGIVSWGIGCALEGYPGVYTKVCNYVSWIQDTVAAN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>----------------------------T-SV--------GYHFCGGSLINNLW-V-------------------------------------------------------------------------------------------------------------------YP-QITENMVCVGYL--GKDSCQGDSGGPVVSDGELQGIVSWGIGCALEGYPGVYTKVCNYVSWIQDTVAAN</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>XP_030044303.1 cortexin-2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MEDILSTTLSASGSALPGTSLTMEQKAAFVFVFFLFIFLGLLIVRCFRILLDPYRSMPSSTWTDYMEKDTFDYRLT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>--------------------------------------------RCFRILLDPYRSMPSSTWTDYM----------</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>XP_030044373.1 C-type natriuretic peptide 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MQTMHVLACGLLLAALCIISLAAKPLSQQESLRSILDKELAEYLPSRESGDKVGSLKFQSRLLRDLHNDSRSQRTWARVLNNYPNIKKRNFTNNNKKATTSKGCFGLKLDRIGALSDLGC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-------------------------------------------LP-----DKVGSLKFQSRLLRDLHNDSRSQRTWARVLNNYPNIKKRNFTNNNKKATTSKGCFGLKLDRIGALSDLGC</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>XP_030044377.1 C-type natriuretic peptide 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MQIKHVLACGLLLAALCISLEAKPLNQQKSLRSILDKELAEYLASRDRGDKVGSLKSQSRLLRDLHIDSRSQTTWARVLNNYPNIKKRKVTNNNNKKGSTSKGCFGLKLDRIGALSNLGC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>------------------------------------------LA---RGDKVGSLKSQSRLLRDLHIDSRSQTTWARVLNNYPNIKKRKVTNNNNKKGSTSKGCFGLKLDRIGALSNLGC</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>XP_030044469.1 phospholipase A2 inhibitor 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MRTFVTSGVCCILSVLIVTVNSLKCQKCNSITENNCQGTEITCDASRNNCGSMYLKTSTGGVEMNVFIKECIGSSDCDETFFLSAENYNIKGISKCCQSDNCDNGIISRMYPYYIHLDSLVLIPVAQKLCGKATCSAIGQIQDTFRVGALALDFRR</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>------------------------CQKCNSITE-NCQ----TC--SRNNCGSMYLK----------F-------------F-L---NYNIKGISKCCQSDNCDNGIISRMYPYYIHLDSLVLIPVAQKLCGKATCSAIGQIQDTFRV-----D---</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>XP_030044609.1 DNA repair and recombination protein RAD54B-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MRRSAAPSQLLGNVTKKPKFLPPAEINADCADKEIVQLNPCSTQENKKQQNNPMTLQAFAQTCDQSVHSIQIWENSNEINCRKNSKGTETPRLEPNSDFL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>---------LLGNVTKKPKFLPPAEINADCADKEIVQLNPCS------QQ-NPMTLQAFAQTCDQSVHSIQIWENSNEINCRK-----------------</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>XP_030044657.1 antileukoproteinase-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MKTRAGIFLIVLLTPWMYSLVNAQCKLEKDGSCPPTSMRMCTDPNAKPECNCDIDCPQKKKCCRDICVNICKDPVKPGYCPVPSTMCSADVPEPTCQSDYDCGGEMKCCTPFCRQECTKPVN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>---------------------NAQCKLEKDGSCPPTSMRMCTDPNAKPECNCDIDCPQKKKCCRDICVNICKDPVKPGYCPVPSTMCSADVPEPTCQSDYDCGGEMKCCTPFCRQECTKPVN</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>XP_030044717.1 LOW QUALITY PROTEIN: ly6/PLAUR domain-containing protein 6B-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MQTSHRLLIACFLQLIPSSKNWVSARNINFYNVIPQIGPTPFPNSFKCFTCENAVDNYNCNRWAEDKWCPPNTKYCLTVHHFASHGRSRSVTKKCATKEECHPVGCHHYRDSGHTECVSCCEGMICNIEVPTNHTNAVFSVMHARRTSDARRRTISIPMLTALMAGMHLL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>--------------------------NIN-YNVIPQIGPTPFPNSFKCFTCENAVDNYNCNRWAEDKWCPPNTKYCLTVHHFASHGRSRSVTKKCATKEECHPVGCHHYRDSGHTECVSCCEGMICNIEVP-N-------------------------------------</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>XP_030044766.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQE-S---L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>XP_030044767.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQE-S---L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>XP_030044839.1 interleukin-8-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MTAVINECFAAALIVCLFSAALTEAMSLAQMGTELRCQCIKTESRFIHPRLMQIVDLIPSGPHCSNVEVIATLKSGQRVCLEPTAPWVIRIIKKILESSKPTPGSQL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>--------------------------------TELRCQCIKTESRFIHPRLMQIVDLIPSGPHCSNVEVIATLKSGQRVCLEPTAPWVIRIIKKILESSKPTPGSQL</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>XP_030044840.1 interleukin-8-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>METKMRMFAAALIVCLLSASLTEAMSLARMGTELRCQCIKTESGFIPRRFIQNVQLFPSGPHCSNAEVIATLKSGQRVCLEPTAPWVERIIKKILEGSDRPESQL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-----------------------------MGTELRCQCIKTESGFIPRRFIQNVQLFPSGPHCSNAEVIATLKSGQRVCLEPTAPWVERIIKKILEGSDRPESQL</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>XP_030045014.1 resistin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MKVVGGFLLIVLLKFGFVATSPDQCTISDILSLESFCRSAVSTDLTKPQITCTTISAKGAYATCPSDHIPTSCSCGMACGSWDVQNELMCHCQCNNIDWTAARCCRINAR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>------------------------------------CR--VSTDLTKPQITCTTISAKGAYATCPSDHIPTSCSCGMACGSWDVQNELMCHCQCNNIDWTAARCCRINAR</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>XP_030045022.1 coiled-coil domain-containing protein 191-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MKKTFLAWLDLVNEEKIASWEKQCIAADHHHKRLVLAGFKAWRRFPKLMKEEKEREERREELRKKVAEILPDFRT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-------------------WEKQCIAADHHHKRLVLAGFKAWRRFPKLMKE---------------AEILPDF--</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>XP_030045042.1 YY1-associated factor 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MGDKKSPTRPKRQPKPSSEEGYWDCSVCTFRNSAEAFKCMMCDVRKGTSTRFPKAAKDDTLKNVFCAVPGLSRRLAGLIC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>---------------------YWDCSVCTFRNSAEAFKCMMCDVRKGTSTRFPKAAKDDTLKNVFCAVPGLSRRLAGLIC</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>XP_030045074.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-------ARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>XP_030045075.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>XP_030045076.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>XP_030045077.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>XP_030045078.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>XP_030045079.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>XP_030045081.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>XP_030045082.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>XP_030045083.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-------ARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XP_030045084.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------------------------------------KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>XP_030045274.1 COX assembly mitochondrial protein 2 homolog [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MHPDLSPHLHTEECNVLIVLLKQCHQENRFMKYFGQCNEADREMRRCLKKEYQENRAKSQARAEEMRKRIMNVSKAD</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>------------------------HQ--RFMKYFGQCNEADREMRRCLKKEYQ--R-K--------R-RIMNVS---</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>XP_030045380.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XP_030045381.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>XP_030045382.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-------ARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>XP_030045384.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>XP_030045385.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-------GGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVG-GAP------------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>XP_030045386.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>XP_030045387.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>XP_030045388.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>XP_030045389.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>XP_030045390.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>XP_030045392.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>XP_030045393.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>---------------------------------RKESYAIYVYKVLKQVHPDT-I----MN-M--FV-DIFERIA---SRLAHYN--STITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>XP_030045394.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-----KSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>XP_030045396.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>XP_030045397.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>XP_030045398.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-------APAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>XP_030045399.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>XP_030045400.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>XP_030045401.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>XP_030045402.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>XP_030045403.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>XP_030045404.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>XP_030045405.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>XP_030045406.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>XP_030045407.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>XP_030045409.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>XP_030045410.1 histone H2A type 1-E-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>XP_030045411.1 histone H2A type 1-E-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLKATRLV</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPV-------------------AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLK-TRLV</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>XP_030045413.1 histone H4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRNPVWFRRLKDRSLLNLSNQLKGSFKSTHTFITEL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>----GKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLE-VIRDAVTYT---K-KTVTA-DV--------RNPVWFRRLK--S----------------------</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>XP_030045660.1 2-iminobutanoate/2-iminopropanoate deaminase-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MGRLVSFKGYCNPGDKVRFAWRNYSFTMAATIRKVIYTPRAPIRKGIYSQAVVVDKTMYICGVVGIDVATGQLVPGGVLEETKQSTKLSAVC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>---LVSFKGYCNPGDKVRFAWRNYSFTMAATIRKVIYTPRAPIRKGIYSQAVVVDKTMYICGVVGIDVATGQLVPGGVL-----STK-SAV-</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>XP_030045725.1 regenerating islet-derived protein 4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MSKTWSNSESYCRSLGRGVHLASIHGKSEANIIGSYIAAHDKNKPVWIGLHNPVQTHLWEWSDGSMYKYRAWEKTLLIMMSVMFLGLLLSCIALTEVLAGPAARSSCPPGWFYYKSNCYGYFRFKASWFDAEFECQSYGHGAHLASILDSSEAAILASHILAYQRNQVVWIGLHDPEENRRWKWADGSMYNYRSWEAQQPDNHENNEYCVELRCNEKFLKWNDSPCESASHFICKFKP</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>----------------RGVHLASIH-----NIIGSY-AAHDKNKPVWIGLH----------------------------------------------------RSSCPPGWFYYKSNCYGYFRFK-SW--------------------------------------------LHD------WKWADGSMYN---------------------RCNEKFLKWNDSPCESASHFICKFKP</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>XP_030045727.1 late histone H2B.L4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MSVEPGKKKVKNVGEKRVSKKKGKRRETYSVYIYKVLKQVHPDTGISSKAMSIMNSFVNDVFERIATEASRLAQYNQRATITSREVQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-------KKVKNVGEKRVSKKKGKRRETYSVYIYKVLKQVHPDTGISSKAMSIMNSFVNDVFERIATEASRLAQYNQRATITSREV--AVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>XP_030045752.1 cathelicidin-related peptide Na_CRAMP-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MGSWLKVVLVISVATVVTPVITTPIFQNIQDAKFIALAISFYNKQANAPSIFKLLEADPLYRLGESVQQMTFRIKETVCQKSEIQSMKECDFKVDGLVKTCLAYFSQQEPHLSGLTCHSVNQKQIRVRRSNPKRECFRRGNKVICRTPSPHRIGSGSTIERVKHHGEIKILPTKAHQK</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-------------------------------------------------------------------------------------------------------------------T------KQIRVRRSNPKRECFRRGNKVICRTPSPHRIGSGSTIERVKHHGEIKILPTKAHQ-</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>XP_030045753.1 cathelicidin-6-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MMSWLTTLLVTWVASVVTSARIPPISSDIQDLDSIILAIDFYNQEQNETSIFKLLDVDNNRRLDDSANNQELNFRIKQTVCQKTETQNTEECEFKEDGLVKDCSAYVLYEKEFKQETGATIITCEPVDQQKTVKSRKKRFSRRRGRKRLRFGMYTLIGHVDKKKNNYGLIWAK</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------------------------------------------------------------------------------------RFSRRRGRKRLRFGMYTLIGHVDKKKNNYGLIWAK</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>XP_030045755.1 cathelicidin-related peptide Na_CRAMP-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MGSWLKVVLVISVATVVTPVTTTPIFQNIQDAKFIALAISFYNKQANVPSIFKLLEADPIYRLGESVQQMTFRIKETVCQKSETQSMKECDFKVDGLVKTCLAYFSQQEPHLSGFTCHTVNQKQIRVRRSNPKRECFRRGNKVICKTPSPRRTTSPPKIGSGSHIAGIDDVPHLLERSKILPAKEHQK</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------------------------------------------------------------FTCHTVNQKQIRVRRSNPKRECFRRGNKVICKTPSPRRTTSPPKIGSGSHIAGIDDVPHLLERSKILPAKEHQ-</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>XP_030045798.1 acyl-CoA-binding domain-containing protein 7 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MSLQADFQKAADNVRKLKAKPTDDEMSELYSLYKQSLVGDVNKADPGASDAVAKAKWDAWNKKKGMSKDDAMKAYIAKSKEMVAKYGVAS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>------F---ADNVRKLKAKPTDDEMSELYSLYK-SLVGDVNKADPGASDAVAKAKWDAWNKKKGMSKDDAMKAYIAKSKEMVAKYGVA-</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>XP_030045826.1 pro-neuropeptide Y isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MQGSMRLWLNVLTFTLSLLICLGTLADAYPSKPDNPGEDAPAEDMAKYYSALRHYINLITRQRYGKRSNPETMVSDVWWRESTENIPRSRFEDPSMW</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>----------------------------------------------KYYSALRHYINLITRQRYGKRSNPETMVSDVWWRESTENIPRSRFEDPSMW</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XP_030045827.1 pro-neuropeptide Y isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MQGSMRLWLNVLTFTLSLLICLGTLADAYPSKPDNPGEDAPAEDMAKYYSALRHYINLITRQRYGKRSNPETMVSDVWWRESTENIPRSR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------S-</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>XP_030045843.1 matrix Gla protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MRVLFIVALLAILAVVTFCSDSHESYESFERYHPFVNRRKANNFIGLQQKKARTYERIRELNKSPKERQREICEDHDLCELYAMRHGFQKAYKRYFGQKYGRGK</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>----------------------------FERYHPFVNRRKANNFIGLQQKKARTYERIRELNKSPKERQREICEDHDLCELYAMRHGFQKAYKRYFGQKYGRG-</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>XP_030045844.1 matrix Gla protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MRVLFIVALLAILAVVTFCSDSHESYESFERYHPFVNRRKANNFIGLQQKKARTYERIRELNKSPKERQREICEDHDLCELYAMRHGFQKAYKRYFGQKYGRGK</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>----------------------------FERYHPFVNRRKANNFIGLQQKKARTYERIRELNKSPKERQREICEDHDLCELYAMRHGFQKAYKRYFGQKYGRG-</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>XP_030045891.1 lymphocyte antigen 6E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MTIIVNGSLIINGPTLKCYTCTKKQSNSDCLIETQCSGSLRYCETIVTRTKQGFSVITNIWKYCSSRCMTSVQYNNGLKSTISCCDTALCNISGAMSVKISYLALVISVGFGGSLLRSGL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>------------------YTCTKKQSNSDCLIETQCSGSLRYCETIVTRTKQGFSVITNIWKYCSSRCMTSVQYNNGLKSTISCCDTALCNIS----------------GFGGSLLRSGL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>XP_030045911.1 neuritin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MGLTLNCRYISIILAVQLAYLVQAVRAAGKCDAVFKGFSDCLLSLGDKMANYPQDLDDDRNLKTICSYWNDFHVCTITALADCQEGATEIWEKLKKESKNLDIQGSLFELCGGNNGAATSVLHLLPTFFPLLLVSLSVLVTWLTF</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>--------------------------AAGKCDAVFKGFSDCLLSLGDKMANYPQDLDDDRNLKTICSYWNDFHVCTITALADCQEGATEIWEKLKKESKNLDIQGSLFELCGGN---A--------------------LVTWLTF</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>XP_030045998.1 lymphotactin-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MKLAMSVLVCFILYTVSTIKAGPGGHQVKIKSCTDIKSNKPLNVKRISRFIHQKTPIAAIMFITNRNIMICVDPKLEWVQLAIKTINSRKTSRRRPKN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>---------------------GPGGHQVKIKSCTDIKSNKPLNVKRISRFIHQKTPIAAIMFITNRNIMICVDPKLEWVQLAIKTINSRKTSRRRPKN</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>XP_030045999.1 lymphotactin-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MKLAMSVLVCFILYTVSTIKGPGGHQVKIKSCTDIKSNKPLNVKRISRFIHQKTPIAAIMFITNRNIMICVDPKLEWVQLAIKTINSRKTSRRRPKN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>---------------------PGGHQVKIKSCTDIKSNKPLNVKRISRFIHQKTPIAAIMFITNRNIMICVDPKLEWVQLAIKTINSRKTSRRRPKN</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>XP_030046082.1 ly6/PLAUR domain-containing protein 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MKMKKGVLILPLVILFCMELAVSLECYYCPSSVPSAECTDLYNCTKNETICMTKIMDSDFGFPFQGTENVIKGCVKECIPTDLDTIGQAHPVFCCNKDRCNNRGLSNQGLSEATSTGASHVALPIPITLCYFLHIIVL</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------M---------FPFQ----VIKGCVKECIPTD-D-I-QAHPVFCCNKDRCNNRGLSNQG-S---------------------------</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>XP_030046088.1 bucandin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MRNFLFSLLIAALCLHTADFLKCYTCKHTIELNNSDCLIETTCSSEDKYCRTTLASAHEETAISKQCEPTCTPGEVEVDELKISDSCCQTDLCNYNAGISGSEGMA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-------------------FLKCYTCKHTIELNNSDCLIETTCS-----CRT-----------------------------KISDSCCQTDLCNYNAGISGSEGMA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>XP_030046154.1 lectin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MNFPTLLYLLVLFIVGGNCTSENCLCAQGFCASGWVQYKDACYANFTTRLSWANAETKCQSLNSHLASIHSVEENDFIYVLMGKIHNHGTGQAYWIGGHDTFKEGKYMWTDGSAWDFAKFGSGQPDNLGNENYIGSWYPENDHITWNDYPTSYSFPFVCKYQLRNRICCDSGYIKPVKT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>--------------------SENCLCAQGFCASGWVQYKDACYAN-T-------------------------------------IHNHGTGQAYWIGGHDTFKEGKYMWTDGSAWDFAKFGSGQPDNLGNENYIGSWYPENDHITWNDYPTSYSFPFVCKYQLRNRICCDSGYIKPVK-</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>XP_030046206.1 mitochondrial import inner membrane translocase subunit Tim10-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MGNQELRTALFAVFVLSGGPRNTAGTKDDKCLPPEVCSPLTIRKLSCQRESLCAWIDVSKYLDIHEHMGKKLTELSLQDGGADEEKGAGPVQ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-----------------------AGTKDDKCLPPEVCSPLTIRKLSCQRESLCAWIDVSKYLDIHEHMGKKLTELS-Q--------------</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>XP_030046251.1 kunitz-type U19-barytoxin-Tl1a-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MKNCSTLAEKLYPDDDRVCQLEKDVGDCKGHCLLWAFNHNLKTCEKSFYGGCGGNGNRFFTKKLCYERCAPEKEHGLENDLDSDDVDIGLILGVTIGCVAAVVLVVALIIFLKNRK</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>--------------------L-K-VGDCKGHCLLWAFNHNLKTCEKSFYGGCGGNGNRFFTKKLCYERCAPE--------------------------------------FLK-R-</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>XP_030046286.1 cocaine- and amphetamine-regulated transcript protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MESSALLIKLFCASLLLSSLCRGQSSREMSSEEYREKKSPSSAEKELVEAMEELLGKFQNKYPSYQKKAAQIPMCDIGERCAVKQGPRIGKLCDCSRGAICNTFLLKCI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------FQNKYPSYQKKAAQIPMCDIGERCAVKQGPRIGKLCDCSRGAICNTFLLKCI</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>XP_030046287.1 cocaine- and amphetamine-regulated transcript protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MESSRMLLVAVGCWLLLLAAVCAQETSELETRALRDFYPKDSIPSSEKELLGALQEVLEKLQSKRVPVWEKKFGQVPTCDIGEQCAVRKASRIGKLCNCPRGAVCNFFLLKCL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------VPVWEKKFGQVPTCDIGEQCAVRKASRIGKLCNCPRGAVCNFFLLKCL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>XP_030046406.1 C-X-C motif chemokine 13 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MKSSAAVLMFTLLLITQDAHGLFEDPRCERCKCQKTTKSFVHPKKISDIRLLLPTHCCPRKEMILTLKTGSLVCVDPAAKWINTLLKIIQENKKESENPSL</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>----------------------FEDPRCERCKCQKTTKSFVHPKKISDIRLLLPTHCCPRKEMILTLKTGSLVCVDPAAKWINTLLKIIQE----------</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>XP_030046482.1 interleukin-8-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>METKMRMFAAALIVCLLSASLTEAMSLARMGTELRCQCIKTESGFIPRRFIQNVQLFPSGPHCSNAEVIATLKSGQRVCLEPTAPWVERIIKKILEGSDRPESQL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-----------------------------MGTELRCQCIKTESGFIPRRFIQNVQLFPSGPHCSNAEVIATLKSGQRVCLEPTAPWVERIIKKILEGSDRPESQL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>XP_030047696.1 LOW QUALITY PROTEIN: regenerating islet-derived protein 4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MSKTWSNSESYCRSLGRGVHLASIHGKSEANIIGSYIAAHDKNKPVWIGLHNPVQTHLWEWSDGSMYKYRAWEKTLLIMMSVMFLGLLLSCIALTEVLAGPAARSSCPPGWFYYKSNCYGYFRFKASWFDAEFECQSYGHGAHLASIXDSSEAAILASHXLAYQRNQVVWIGLHDPEENRRWKWADGSMYNYRSWEAQQPDNHGNNEYCVELRCNEKFLKWNDRPCETASHFICKFKP</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>----------------RGVHLASIH-----NIIGSY-AAHDKNKPVWIGLH----------------------------------------------------RSSCPPGWFYYKSNCYGYFRFKASWF------------------------------------------GLH-----RRWKWADGSMYNYRSWEAQQP--------CV-LRCNEKFLKWNDRPCETASHFICKFKP</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>XP_030047740.1 C-C motif chemokine 19-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MFLRISLLCLIVLCCWETMQVFGNNSTPDCCLLVSHKPIKRHLVKSYRIQTADNSCTRNAVVFITRKNKALCAPPGVEWVKALVAKLDKAHKQKAARRKQKTA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>--------------CWETMQVFGNNSTPDCCLLVSHKPIKRHLVKSYRIQTADNSCTRNAVVFITRKNKALCAPPGVEWVKALVAKLDKAHKQKAARRKQKTA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>XP_030047741.1 C-C motif chemokine 28-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MKTLLFIACLLLLFLPSLEGMPTVNLNCCTTVAKHIPKHIFKHVRHLNFQMTDWNCNLPAAVLIFKNQMMCLDPKNKDFRIWLRRRRLTQGPKLANGQRKKIQ</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-------------------------LNCCTTVAKHIPKHIFKH-R-LN------------------------D---KDFRIWLRRRRLTQGPKLANGQRKKI-</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>XP_030047892.1 lysozyme C-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MAPRTALIIVKALALAFLLGLVVLKSEAKVFSKCELASAFKRGGLDGYYGYSLANWMCLAYYESRYNTAAVNNNGPSRDYGVFQINSYWWCNDGQTSGSKNACGISCSNFLNDDISDDIVCAKRVVRDPQGMNAWVAWKNYCKGKDVSSFTSGCAL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>-----------------------------VFSKCELASAFKRGGLDGYYGYSLANWMCLAYYESRYNTAAVNNNGPSRDYGVFQINSYWWCNDGQTSGSKNACGISCSNFLNDDISDDIVCAKRVVRDPQGMNAWVAWKNYCKGKDVSSFTSGCAL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>XP_030047916.1 IQ motif and SEC7 domain-containing protein 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MEGGPGPGSGPGPGGESPNRAVEYLLELNNIIESQQKLLETQRRRIEELEVQLERLSQENRDLREGQNREREQQHRHHRDYHCRDPPQPVRDPPHYPNREPQHYREGQCQQQQQQHRHRERDQEREGHYSGRERSQRSRGASRSSSPGGGGGHSTSTSTSPATTLQRKSDGENSRTVSISNKLNLNLMKLSTAMTPFCDHRKHMMTEAAYLESMLLLLAFLKHRL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------RHHRDYHCRDPPQPVRDPPHYP-RE-QHYR-GQCQQ-------------------------------------------------------------------------------------------------------------LK-R-</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>XP_030048001.1 platelet basic protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MHTASRVSGSHSHKEAETILEPTHTQKLEATTGTHTDTEEQCNRNPLTQRSRSFSTSQEARSHSSYKLNCEKQENNSSIDMQSKFHTLILAICLMSVALSEAMSVPRMYTPRMVKSRMGMELRCQCIKTESNFIHPHNIQIVELYPSGAQCANVEVIATLKDGQRVCLDPSAPWVRKIIQKISESSPDINNESQ</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------------------------------------------RMGMELRCQCIKTESNFIHPHNIQIVELYPSGAQCANVEVIATLKDGQRVCLDPSAPWVRKIIQKISESSPDI-----</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>XP_030048129.1 endothelial cell-specific molecule 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MRSRLFLAMLLVSVHTGSTRSAPYAVDCPGHCVSNECKSTLRCARTVLDDCGCCRVCAAGVGETCYRTVSGMDGVKCGPGLRCHFYSEEDDFGDEFGICKECPYGTHGMECRKTCSCPSGVCDRVSGKCLKFPFFQQSAPKPPKKPHSESDSASGDGNDVKEELMNGKTIHSSGMKWLNPR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>---------------------APYAVDCPGHCVSNECKSTLRCARTVLDDCGCCRVCAAGVGETCYRTVSGMDGVKCGPGLR-H-------F---FGICKECPYGTHGMECRKTCSCPSGVCDRVSGKCLKFPFFQQSAPKP----------------------M---TI-SSGMKWLNPR</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>XP_030048131.1 granzyme A-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MALVLTLSLCAAAFLLNIHGGLGVKIIGGKEAKPHSMPFMALIKGKSICGGILIKSNWVLTAAHCETDNYTKVILGVHSISTKEKEQQMFSIKKRIPHQCFDKKTGENDLMLLQLTGNAKLNKNVKLHSLPKNGEDIKARTKCEVAGWGITNNKATSGSDKLMHVTITILDRQMCSDMKHYNFNPVITNNMLCAGDKRGRKDTCSGDSGGPLLCKGILRGITSFGHKICGDPKKPGIYTRLTDTYLSWIKKTIGGDF</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>--------------------GLGVKIIGGKEAKPHSMPFMALIKGKSICGGILIKSNWV---------------------------------------------------------------------------------------GWG-------------------------------------------------GRKDTCSGDSGGPLLCKGILRGITSFGHKICGDPKKPGIYTRLTDTYLSWIKKTIGGDF</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>XP_030048153.1 protein S100-Z [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MPTQLETAMDTLIKIFHHYSGKEGDKYKLNKGELKQLLQCELTDFLACQKDPQLVDKIMKDLDTNKDNEVDFNEFVVLVAALTVACNDFFEEQLKKKGKLKDCN</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>--------------IFHHYSGKEGDKYKLNKGELKQLLQCELTDFLACQKDPQLVDKI--------------------------ACNDFFEEQLKKKGKLKDCN</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>XP_030048155.1 protein S100-Z [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MPTQLETAMDTLIKIFHHYSGKEGDKYKLNKGELKQLLQCELTDFLACQKDPQLVDKIMKDLDTNKDNEVDFNEFVVLVAALTVACNDFFEEQLKKKGKLKDCN</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>-------------KIFHHYSGKEGDKYKLNK---KQLLQCELTDFLAC-K---L------------------------------ACNDFFEEQLKKKGKLKDCN</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>XP_030048164.1 cocaine- and amphetamine-regulated transcript protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MESSRVCVVTCCSAFLLLLLGASCQETGELEPRSLDFYTTVESTSREKELLEALQEVLEKLKSKRIPSYEKKYGQVPMCEAGDQCAVRKGPRIGKLCDCPRRTSCNTYLLKCL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------RIPSYEKKYGQVPMCEAGDQCAVRKGPRIGKLCDCPRRTSCNTYLLKCL</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>XP_030048258.1 chemokine-like protein TAFA-1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MRLQLGFCLTGWAFLLLMSNVHGQHLHLSPQWHHHYHFQSQGEQLPVISGGTCEVIAAHRCCNRNRIEERSQTVKCSCLPGKVAGTTKAKPSCVDASIVTGKWWCEMEPCLDGEECKTLPDNSGWMCAQGNRVKTTKIHPRY</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>------------------------HLHLSPQWHHHYHFQSQGEQLPVISGGTCEVIAAHRCCNRNRIEERSQTVKCSCLPGKVAGTTKAKPSCVDASIVTGKWWCEMEPCLDGEECKTLPDNSGWMCAQGNRVKTTKIHPRY</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>XP_030048305.1 serum amyloid A-5 protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MKLSFCILLLSMALCVNAQWYRDVGRQVTDAGRFVKEAAQGTWDMGRAYMDMREANYRNSDKYFHARGNYDAAQRGAGGKWAAETISNAREFFQGGSSGRGVEDSRADQEANRWGREGGDPNHYRPAGLPEKY</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>------------------QWYRDVGRQVTDAGRFVKEAAQGTWDMGRAYMDMREANYRNSDKYFHARGNYDAAQRGAGGKWAAETISNAREFFQGGSSGRGVEDSRADQEANRWGREGGDPNHYRPAGLPEKY</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>XP_030048332.1 serine protease inhibitor Kazal-type 2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MNSRTLAPDGKYHSGVPPSMKQLLLCTLFILTTGIIFVPKTEGYLTPNCERYPLPGCPRNLNPVCGTDGETYSNECMLCYSNRSNRRNVKIVTYGYC</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-------------------------------------V----GYLTPNCERYPLPGCPRNLNPVCGTD-ETYSNECMLCYSNRSNRRNVKIVTYGYC</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>XP_030048333.1 serine protease inhibitor Kazal-type 2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MNSRTLAPDGKYHSGVPPSMKQLLLCTLFILTTGIIFVPKTEGYLTPNCERYPLPGCPRNLNPVCGTDGETYSNECMLCYSNRSNRRNVKIVTYGYC</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>----------------------------------IIFVPKTEGYLTPNCERYPLPGCPRNLNPVCGTDGETYSNECMLCYSNRSNRRNVKIVTYGYC</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>XP_030048346.1 liver-expressed antimicrobial peptide 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MRKEFTQVFAVACVFLLISFSLGNAAPVPNKQGNYLTLRVKRSMLWRWITLRPVGATCTGNAECSTTYCRDGHCSLQVFSS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>--------------------------------GNYLTLRV--SMLWRWITLRPVGATCTGNAECSTTYCRDGHCSLQVFSS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>XP_030048356.1 C-X-C motif chemokine 3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MTIQMSLHVLLLLVLLGSWTAPSQGASLRTELRCQCIKTVSEFIPVKQIANVDLTPEGPHCPTVEVIATLKNGFLACLNPEEKWVKRIIHTILNRQSHKL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>-----------------------QGASLRTELRCQCIKTVSEFIPVKQIANVDLTPEGPHCPTVEVIATLKNGFLACLNPEEKWVKRIIHTILNRQSHKL</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>XP_030048357.1 permeability factor 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MKSPLSLHLVLLLVLSAGWTTPSQGASLRTELRCQCIKTISEFIPVKQIANVELIPEGPHCPTVEVIATLKSGMQVCLNPDAKWVQIIINKILNGASSRR</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>---------------------PSQGASLRTELRCQCIKTISEFIPVKQIANVELIPEGPHCPTVEVIATLKSGMQVCLNPDAKWVQIIINKILNGASSR-</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>XP_030048361.1 C-X-C motif chemokine 11-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MGKFATLFLVISLCVTLAEGLSIVGHSQRCLCDGKLYNLIPSRNIRKVEMFPQTPRCYNVEIVITMKTGKRWCLNPKAQRVRAVLGKFSMKRDFKHNY</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>-----------------------VGHSQRCLCDGKLYNLIPSRNIRKVEMFPQTPRCYNVEIVITMKTGKRWCLNPKAQRVRAVLGKFSMKRDFKHNY</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>XP_030048362.1 C-X-C motif chemokine 11-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MDLRCTVPLCLLLLFTIEIQGSPVAGRGRCLCKETGSNFVRRIYIEKLEVYPQSASCEHREVIVTIKQSGEKRCLNPNSEWVRRILTSFTKKA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>-----------------------VAGRGRCLCKETGSNFVRRIYIE--------------------------RCLNPNSEWVRRILTSFTKKA</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>XP_030048363.1 C-X-C motif chemokine 10-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MEQRLVSLLCLLLLITAGIEGLSIGGKGRCLCIRNGSNFVKQKSIAKIELLPKSSSCEHTEIIITMKQSGKKRCLNPYSKMGKKILARSMKKRFLKISLKKRGK</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>----------------------SIGGKGRCLCIRNGSNFVKQKSIAKIELLPK-S-------IITMKQSGKKRCLNPYSKMGKKILARSMKKRFLKISLKKRG-</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>XP_030048372.1 histone H2A.Z isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MGSTAGSQFKAGGKAGKDSGKTKTKAVSRSQRAGLQFPVGRIHRHLKSRTTSHGRVGATAAVYSAAILEYLTAEVLELAGNASKDLKVKRITPRHLQLAIRGDEELDSLIKATIAGGGVIPHIHKSLIGKKGQQKTV</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>---------KAGGKAGKDSGKTKTKAVSRSQR-GLQF------------------------------------------------LK---ITPRHLQ-A-R-----DSLIK-TIAGGGVIPHIHKSLIGKKGQQKTV</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>XP_030048373.1 histone H2A.Z isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MAGGKAGKDSGKTKTKAVSRSQRAGLQFPVGRIHRHLKSRTTSHGRVGATAAVYSAAILEYLTAEVLELAGNASKDLKVKRITPRHLQLAIRGDEELDSLIKATIAGGGVIPHIHKSLIGKKGQQKTV</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>---------S-KT-----------G--F---------------------------------------------------------------------DSLIK-TIAGGGVIPHIHKSLIGKKGQQKTV</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>XP_030048420.1 mesotocin-neurophysin MT-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MMYSTLAVYMFCLLALSSACYIQNCPIGGKRSVLDVMDVRKCIPCGPRNKGHCFGPSICCGEEIGCYFGTPETLRCQEENYLPSPCESGRKPCGNSGGNCAASGICCNNESCIADSTCDQDSAFS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>---------------------------------------RKCIPCGPRNKGHCFGP---------------------------S-C-SGRKPCGNSGGNCAASGICCNNESCIADSTCDQ---FS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>XP_030048536.1 apelin receptor early endogenous ligand [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MRLQHLFSILWVILMSLLLISAQRTVNLGQRRKLHRHNCLQRRCLPLHSRVPFP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>-----------------------------QRRKLHRHNCLQRRCLPLHSRVPFP</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>XP_030048537.1 apelin receptor early endogenous ligand [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MRLQHLFSILWVILMSLLLISAQRTVNLGQRRKLHRHNCLQRRCLPLHSRVPFP</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-----------------------------QRRKLHRHNCLQRRCLPLHSRVPFP</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>XP_030048541.1 WAP four-disulfide core domain protein 5-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MKTSVIILTFAFLLVWVDLDSVSAQQKGDNRGNSSHITTAALISEFQDRPGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCEEHSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>---------------------------------------------F---PGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCE-HSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>XP_030048542.1 WAP four-disulfide core domain protein 5-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MKTSVIILTFAFLLVWVDLDSVSAQQKGDNRGNSSHITTAALINRPGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCEEHSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>-------------------------------GNSSHITTAALINRPGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCE-HSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>XP_030048543.1 WAP four-disulfide core domain protein 5-like isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MKTSVIILTFAFLLVWVDLDSVSAQQKDRPGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCEEHSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>-----------------------------PGFCPSNDLPASAIKDAKCTYDKDCIKPTKCCPRGATFDCLPAVKEKPGKCPTTAEKCEEHSKCESDSDCSEDRKCCNLCDKRCLKPVPVKKL</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>XP_030048776.1 immediate early response 3-interacting protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MAFTLYSLIQAALLCVNAIAVLHEERFLSKIGWGADQGIGGFGEEPGVKSQLMNLIRSVRTVMRVPLIVVNSVTIVLLLLFG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>--------------------------FLSKIGWGADQGIGGFGEEPGVKS-LM-----------------------------</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>XP_030048777.1 immediate early response 3-interacting protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MAFTLYSLIQAALLCVNAIAVLHEERFLSKIGWGADQGIGGFGEEPGVKSQLMNLIRSVRTVMRVPLIVVNSVTIVLLLLFG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>--------------------------FLSKIGWGADQGIGGFGEEPGVKS-LM-----------------------------</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>XP_030048837.1 ubiquitin-40S ribosomal protein S27a [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MQIFVKTLTGKTITLEVECSDTIENVKAKIQDKEGIPPDQQRLIFAGKQLEDGRTLSDYNIQKESTLHLVLRLRGGAKKRKKKSYTTPKKNKHKRKKVKLAVLKYYKVDENGKIHRLRRECPAEECGAGVFMASHFDRHYCGKCCLTYCFNKPEDK</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------KKKSYTTPKKNKHKRKKVKLA-L---------KIHRLRRECPAEECGAGVFMASHFDRHYCGKCCLTYCFNKPED-</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>XP_030048859.1 phorbol-12-myristate-13-acetate-induced protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MRSRRLLLLLLLFSIFIALESVRSAAQTPSLPTGGNGTMKGRLSHRARSMPAGDGRKRDRQEAVAECASQLRKIGDRCDLKQKIINLISKLLCPET</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------AECASQLRKIGDRCDLKQKIINLISKLLCPE-</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>XP_030048960.1 C-C motif chemokine 28 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MDMKVIAVLIFLHMMQLSEPLTGSSSSCCTEVANHVSKKLLRRVLRFEMQRAVGICPLPAIVLYTRHKKLCANPKIQLIKKWRKKNDKNRGKGNSHRGEKRTNKNKNKIKNRRAWKRQ</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>------------------------SSSCCTEVANHVSKKLLRRVLRFEMQRAVGICPLPAIVLYTRHKKLCANPKIQLIKKWRKKNDKNRGKGNSHRGEKRTNKNKNKIKNRRAWK--</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>XP_030049764.1 lysozyme C-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MKPIAIAFLLGLLVLKSEARVFSKCELASALKRGGMAGYHGITLANWMCLVHHESGYNTTAVNDNGPSRDYGIFQINSYLWCNDGQTLGSKNECGINCSSLLNIDIGDDIACAKTVVRKPQGINAWASWRTDCKGRNLSSFVSGCTV</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>--------------------VFSKCELASALKRGGMAGYHGITLANWMCLVHHESGYNTTAVNDNGPSRDYGIFQINSYLWCNDGQTLGSKNECGINCSSLLNIDIGDDIACAKTVVRKPQGINAWASWRTDCKGRNLSSFVSGCTV</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.9399999976158142</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>XP_030049766.1 lysozyme C-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MRAQGMCLVHHESGYNTTAVNDNGPSRDYGIFQINSYLWCNDGQTLGSKNECGINCSSLLNIDIGDDIACAKTVVRKPQGINAWASWRTDCKGRNLSSFVSGCTV</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>----GMCLVHHESGYNTTAVNDNGPSRDYGIFQINSYLWCNDGQTLGSKNECGINCSSLLNIDIGDDIACAKTVVRKPQGINAWASWRTDCKGRNLSSFVSGCTV</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>XP_030049767.1 lysozyme C-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MKPIAIAFLLGLLVLKSEARVYSKCELASALKRGGMAGYHGITLANWMCLAYYESGYNTAAVNNNGPSRDYGIFQINSYWWCNDGKTRGSKNACGISCSSLLNNDISNDIACAKRVVRDPQGINAWVAWRNHCKGRDLSRFVSGCKL</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>--------------------VYSKCELASALKRGGMAGYHGITLANWMCLAYYESGYNTAAVNNNGPSRDYGIFQINSYWWCNDGKTRGSKNACGISCSSLLNNDISNDIACAKRVVRDPQGINAWVAWRNHCKGRDLSRFVSGCKL</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>XP_030050102.1 protein FAM3A isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MRLAGSVRIVVIVLTVGLTWILASVMLGSQGGLPRIQQLLNSPDNAPTADSRPKKYKCGLPQPCPDKHFAFRIVSGAANVIGPKICLEDKMLMSSVKNNVGRGLNIALVNGVNGELIDAKFFDMWAGDVNELLKFVRAVYEGTVVFVASYDDPATKMNDEARKIFSDFGSSAIKDIGFRDSWVFVGAKGVQDKSPFEQHMKNNKNSNKYEGWPEALEMEGCIPQRTAETV</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>------------------------------GGLPRIQQLLNSP-------SRPKKYKCGLPQPCPDKHFAFRIVSGAANVIGPK------------------------------------------------------------------------------KIFSDFGSSAIKDIGFRDSWVFVGAKGVQDKSPFEQHMK---------GW------E-CIPQ------</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>XP_030050103.1 protein FAM3A isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MRLAGSVRIVVIVLTVGLTWILASVMLGSQGGLPRIQQLLNSPDNAPTADSRPKKYKCGLPQPCPDKHFAFRIVSGAANVIGPKICLEDKMLMSSVKNNVGRGLNIALVNGVNGELIDAKFFDMWAGDVNELLKFVRAVYEGTVVFVASYDDPATKMNDEARKIFSDFGSSAIKDIGFRDSWVFVGAKGVQDKSPFEQHMKNNKNSNKYEGWPEALEMEGCIPQRTAETV</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>------------------------------GGLPRIQQLLNSP-------SRPKKYKCGLPQPCPDKHFAFRIVSGAANVIGPK------------------------------------------------------------------------------KIFSDFGSSAIKDIGFRDSWVFVGAKGVQDKSPFEQHMK---------GW------E-CIPQ------</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>XP_030050590.1 uncharacterized protein LOC115464341 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MRGSIYRPHHNSSKYNHLHHSFYSHNLCFIHFHKLWNNNKYCHNHWHWGQHTPLALGQPQHRNWNNYNHRHWDNYTTGTGTTTTTGTGTTTTTGTGTTTTTGTGTTTGTGTTTTSTGTTTTGTGTTVTGTTGTGSTTNLSGSSTTGGAAAESGLAVWAIILICLASILAFVLLLCICFCVLRGRCGGESHWNSSFPNTSLSRDDCRNPSAPTYTSDCGRMSGMTLDEMGGSSRPAHCRGGSISRSTCNGF</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------C-------------------------------------------GGSSRPAHCRGGSISRSTCNGF</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>XP_030050599.1 low affinity immunoglobulin epsilon Fc receptor-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MIKWYLDLAEVKQKDLSRIDKSLEELKETVGSICQACASRSICQECPLGWLLFRGSCYKFSTTAKDWEGARISCAESNSHLAIINSLEEQYFLSNSTNSKDSWIGLSDKDTEGVWQWVDGSPLSFSFWNTDEPNNYGEGRGLCAASI</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>-------------------------------------ASRSICQECPLGWLLFRGSCYKFSTTAKDWEGARISCA--------------------------SWIGLSDKDTEGVWQWVDGSPLSFSFWNTDEPNNYGEGRGLCAASI</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>XP_030050656.1 cystatin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MFSIWKISLLFMVTLALKAETIIKGKAPSQLGGWTDVNLNENDTELQKALAVAIREHNKASNDQFISVVSNVIQARKQIVAGVRYALTAQIAQTACRKSDSAPENCTKSELSTLSQHKTCTFFVVLAPWQNKEELQQNSCA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>---------------------------PSQLGGWTDVN----------------------S-DQFISVVSNVIQARKQIVAGVRYALTAQIAQTACRKSDSAP-N-T------------CTF---LAPWQ-----QQNSC-</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>XP_030051125.1 relaxin-3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MQQKSIYTKFPDGFSSPAVTDSGEENTGNWKSGLPDSGNQLSWREYLAGSSKQTGNVGLAEDVLDTLFHSERRGRDVILGLASTCCKWGCSKSEISSLC</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------RDVILGLASTCCKWGCSKSEISSLC</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>XP_030051180.1 epidermal growth factor-like protein 8 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MALLQLVATALTCLLSTGVRGQVLKEGRGVCSKQTLRVPLIYNETFIQPVYHPFLTTCKGLRTCSTYRTTYRVSYRQVTKEVLQTSITCCPGWQKNHPGATSCDQALCHKPCRNGGICSRPNVCLCRPGWGGKYCQIDVDECRTPIHSCFQQCVNTLGSYHCACHPGFSLGADEKSCQEQPTPSPALPTSEAGMDSEHFPEPSPYAARGYQGRTHTGALDTPPAAGPGGVTE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>----------------------V-KEGRGVCSKQT-RV--------------------K-LRT-------------------------------------------LCHKPCRNGGICSRPNVCLCRPGWGGKYCQIDV--CRTPIHSCFQQCVNTLGSYHCACHPGFS---------------------------------S-YAARGYQGRTHTGALDTPP-AGPGGVT-</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>XP_030051184.1 epidermal growth factor-like protein 8 isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MALLQLVATTLTCLLSTNLGVRGQVLKEGRGVCSKQTLRVPLIYNETFIQPVYHPFLTTCKGLRTCSTYRTTYRVSYRQVTKEVLQTSITCCPGWQKNHPGATSCDQALCHKPCRNGGICTRPNVCLCRPGWGGKYCQIDVDECRTPIHSCFQQCVNTLGSYHCACHPGFSLGADEKSCQEQPTPSPALPTSEAGMDSEHFPEPSPYAARGYQGRTHTGALDTPPAAGPGGVTE</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>-----------------------QVLKEGRGVCSKQTLRVPLI-----------PFLTTCKGLRTCSTYRTTY-------------TSITCCPGWQKNHPGATSCDQALCHKPCRNGGICTRPNVCLCRPGWGGKYCQIDVDECRTPIHSCFQQCVNTLGSYHCACHPGFSLGA---------------------------PEPSPYAARGYQGRTHTGALDTPP-AGPGGVT-</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>XP_030051213.1 long neurotoxin 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MKTFIIAAFLAILCISLGDGLKCYHCDLCIDLTIQNHTATCSDNQKCVTSKANNGTLVKRGCLDSNKCETRETITLSDYYHSCCNTDHCNSGHLLQLSLLVCLAVAGLWLLTLT</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-------------------GLKCYHCDLCIDLTIQNHTATCSDNQKCVTSKANNGTLVKRGCLDSNKCETRETITLSDYYHSCCNTDHCNSGHL-------------LWL----</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>XP_030051276.1 NADH dehydrogenase [ubiquinone] 1 alpha subcomplex subunit 3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MASRIGGFLKKLWAEQPVITVAIAIGIVAVVTPLVSPYTKYSSMMNKAVPYTYPVPLRDDGNMPDVPSHPCDKLGPNLDWLKNL</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>---RIGGFLKKLWAEQPVITVAIAIGIVAVVTPLVSPYTKYSSMMNKAVPYTYPVPLRDDGNMPDVPSHPCDKLGPNLDWLKNL</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>XP_030051398.1 dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MITDVQLAIFANMLGVSLFLLVVLYHYVAVNNPKKQD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>----------------------------------K--</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>XP_030051399.1 dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MITDVQLAIFANMLGVSLFLLVVLYHYVAVNNPKKQD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>----------------------------------K--</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>XP_030051416.1 prepronociceptin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MKTLLWTLVLLCLFANVLSDCQRDCLICKKHLYQQDDFNTLVCIVECEGEAYSSVIWKMCKKVLKKTAVQLSVDSMEDNTYNPLETEDGLFRSNLKHLEDLTKVVDLSKIENEKRISKISGLIQEQEEDNTIERSETPLHMTSEPDAFSDLQGQSRDITKRYGGFLKGKYSYRKFLEPARGMQKRYGGFIGVRKSARKWNNQKRFSEFLKQYLGMSTRSSGYDSLSADINEENEI</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>--------------------CQRDCLIC-----------------------YSSVIWKMC------------------------------------------------------------------------------------------------------G-FLKGKYSYRKFLEP-RGMQ-RYGGFIGVRKSARKWNNQKRFSEFLKQYL----------------------</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6299999952316284</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>XP_030051579.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>----------S---KAPRKQLATKAARKSAPSTGGVKKPHRYRPGTV-L----RY--STELLIRKLPFQRLVREI-QDFKTDLRFQS-AIGALQ------L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>XP_030051580.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQE-S---L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>XP_030051926.1 retinoic acid receptor responder protein 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MLKALFLAVCLTWVTSYVPGTATQIELHGIHELKDKTVALAVANFNQRSSIHAYKELDTLNTTATATVTGTFVKVTFTIKETNCNKLGYQPDRCQHKGNGRVFYCVACFAYRAMEEESAAEFTDCVPRHPPTKGRANQQQQRCETVKRAIPDRYRPGEISIMAGLPSLDHNKGILREDVLNAS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>-----------------V--TATQIELHGIHE-K-KTVAL---N----------------------------------------NKLGYQPDRCQHKGNGRVFYCVACFAY-----------TDCVPRHPPTKGRANQQQQRCETVKRAIPDRYRPGEISIMAGLPS----------------</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>XP_030052127.1 cystatin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MFSVWKISLLFMASLALTAATIPGKKDRRPLGGWTDVNVTENDSGLQKALEVAIREHNKASNDQFINVVTNVIRARRQIVAGMKYSLNVQIAKTDCRKSDSTPENCTESELSRLSQHKRCRFVVYLVPWLKKEELKQNNCD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------------------Q----------------------------------RLS-HKRCRFVVYLVPWLKKEELKQNNC-</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>XP_030052871.1 cathelicidin-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MMLWAAVLILVAGSAVAAPFSETRPVPKEVARAAVEVYNQQNEQAAAFKLLKLVLVKKKNFDWGIHFSINFTVKETYCQKTAAYNLQNCKFRENGLVKDCFAEATVLDFVQDLPLTSVECHQHNVTRQRARGAPNTRNQRVKVQPQAMSDDPKVTVRHFHSSFTIAAQSANV</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------A-YNLQN-KFR---LVK----------------------HQ-NVTRQRARGAPNTRNQRVKVQ---M-D----T---FHSSFT------N-</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>XP_030052967.1 coiled-coil-helix-coiled-coil-helix domain-containing protein 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MQAALEVTARYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>---------RYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>XP_030052968.1 coiled-coil-helix-coiled-coil-helix domain-containing protein 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MQAALEVTARYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>---------RYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>XP_030052969.1 coiled-coil-helix-coiled-coil-helix domain-containing protein 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MQAALEVTARYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>---------RYCRKEMEAYGECVASKPSSWQKDCQPLKVSVARCTSSHPIIQRIRQECAGPFAAFEGCLRQNQTSAENCAEHMGHFLQCAEKVKPNY</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>XP_030053263.1 mucin-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MARALCTPKAACEILALLLVLSFQTAEAQSAVPGWGIALLVLVAVILLLLLMLCCSMMICRRKDSCESSQSGVSSYFPHLGFSRQDC</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------C-SMMICRRKDSCESSQSGVSSYFPHLGFSRQDC</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>XP_030053304.1 sperm acrosome membrane-associated protein 4 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MNKLLLLILVTLLCIHFGEGQVKRCIKCDFTLGDIPCIQSTVTCNTGEVCATIKGKAGSAHLITKRNCVERSRCGVNDTTSWVGVTYTTSTVCCEEDFCNSGVGVIRFSLLAGLTALLCFFLTKIL</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>---------------------VKRCIKCDFTLGDIPCIQSTVTCNTGEVCATIKGKAGSAHLITKRNCVERSRCGVNDTTSWVGVTYTTSTVCCEEDFCNSGVGVIRFSLLAGLTALLCFFLTKIL</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>XP_030053305.1 sperm acrosome membrane-associated protein 4 isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MNKLILWGLVALLCIHFGEGQVKRCIKCDFTLGDIPCIQSTVTCNTGEVCATIKGKAGSAHLITKRNCVERSRCGVNDTTSWVGVTYTTSTVCCEEDFCNSGVGVIRFSLLAGLTALLCFFLTKIL</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>-----------------------RCIKCDFTLGDIPCIQSTVTCNTGEVCATIKGKAGSAHLITKRNCVERSRCGVNDTTSWVGVTYTTSTVCCEEDFCNSGVGVIRFSLLAGLTALLCFFLTKIL</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>XP_030053310.1 protein Bouncer-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MKLLLVLMLSAWLCADLGQTQSQNLDCYQCKFRFNSYCMHTISPVISCLRSDNFCGTTKVSIGTNMVYSMTGCILNSECNRTLQEQSPTKFINYNTTCCYGNLCNSSPHLTLSLLSGLGVLVRLLLV</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>---------------D-GQTQSQNLDCYQCKFRFNSYCMHTISPVISCLRSDNFCGTTKVSIGTNMVYSMTGCILNSECNRTLQE-S-TKFINYNTTCCYGNLCN----------------------</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>XP_030053311.1 protein Bouncer-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>MKLLLVLMLSAWLCADLGQTQSQNLDCYQCKFRFNSYCMHTISPVISCLRSDNFCGTTKVSIGTNMVYSMTGCILNSECNRTLQEQSPTKFINYNTTCCYGNLCNSSPHLTLSLLSGLGVLVRLLLV</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>------------------QTQSQNLDCYQCKFRFNSYCMHTISPVISCLRSDNFCGTTKVSIGTNMVYSMTGCILNSECNRTLQE-S-TKFINYNTTCCYGNLCN----------------------</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>XP_030053312.1 lymphocyte antigen 6 complex locus protein G6c [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MKTFILIGLVTLCFLAVVQGLQCNVCGLKVAIVGCVQSKGTKTCNANEKCQTIKGYIGSAHVFSKLDCSTTDSENCNVTEKSENTFGFTYNKYCCNTDLCNSASALQLPLLAGFSAMIILLLKLS</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>-------------------------CGLKVAIVGCVQSKGTKTCNANEKCQTIKGYIG-----------------------------FTYNKYCCNTDLCN------------------------</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>XP_030053650.1 beta-2-glycoprotein 1-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MQRAMGTKIQQLFLALVSFFLVIITGIPKEDAEDTTCPQVREGLAEAMGQTCQKPCLRHRDCSGKRRCLCDGHCGLSCITLSRTCPWPVQLQHADVRLKGESHHFRDEMVVSCHPGFTMSEGGNTVTSHCQGDRKWSSTPACQAELDAENTCGPPPALKNGFHVGFSWKPGNSVQYFCEQSYELDGESVNSCQENLLWSNPAPTCRARCQIPVQRSRIVYQGKKVWIGEVPGGEVQHLEEVTFFCHGQNRSCSYQAISRCFDGHLPLPDCYREPTWLQYTIFPKKLVSEIPSC</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------VQRSRI------------------------FFCH-QNRSCSYQAISRCFDGHLPLPDCYREPTWLQYTIFPKKLVSEIPSC</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>XP_030053749.1 NADH dehydrogenase [ubiquinone] 1 alpha subcomplex subunit 3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MASRIGGFLKKLWAEQPVITVAIAIGIVAVVTPLVSPYTKYSSMMNKAVPYTYPVPLRDDGNMPDVPSHPCDKLGPNLDWLKNL</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>---RIGGFLKKLWAEQPVITVAIAIGIVAVVTPLVSPYTKYSSMMNKAVPYTYPVPLRDDGNMPDVPSHPCDKLGPNLDWLKNL</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>XP_030054230.1 putative lysozyme C-2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MKTLALLILLGICALRSEAIGECEVIAEARAASLEGYKGYSLENYACLAFYASNYDTSFQRTPDEFGIVQINRMWCNVGPKDNNPCGIPCSSLLDNDLSDDMKCVKRIVQDPNGLAAWNPWTEYCKDKDLSQFKCLS</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------------GIVQINRMWCNVGPKDNNPCGIPCSSLLDNDLSDDMKCVKRIVQDPNGLAAWNPWTEYCKDKDLSQFKCLS</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>XP_030054232.1 lysozyme C, milk isozyme-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MKTLTLLALLGICILKCEAIGKCEVVEAARWAGLDGYKGYSAANYACLAYYASYYDTSLHNSPTEYGLFQINSYWWCNNSWRDNKACKIRCSSLLDSNIYDDIRCVKRIVQDPNGLDAWTPWVQNCKGRDLRRFNC</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>-------------ILKCEAIGKCEVVEAARWAGLDGYKGYSAANYACLAYYASYYDTSLHNSPTEYGLFQINSYWWCNNSWRDNKACKIRCSSLLDSNIYDDIRCVKRIVQDPNGLDAWTPWVQNCKGRDLRRFNC</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>XP_030054233.1 lysozyme C, milk isozyme-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MKTLTLLALLGICILKCEAIGKCEVVEAARWAGLDGVKGYSAANYACLAYYASYYDTSLNNSPTEFGIFQINGDWWCNYNWEENKPCNILCSDLLDSNIYDDILCVKRIVQDPNGLDAWTPWVQNCKGKDLSAFSC</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>---------------KCEAIGKCEVVEAARWAGLDGVKGYSAANYACLAYYASYYDT-LNNS--EFGIFQINGDWWCNYNWEENKPCNILCSDLLDSNIYDDILCVKRIVQDPNGLDAWTPWVQNCKGKDLSAFSC</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>XP_030055387.1 galanin peptides isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MQKAISVFLVSLLLSTNFTYTFGLVLSAKEKRGWTLNSAGYLLGPHAVDNHRSFIEKHGLGGKRELQAEENTKLGNFLKTWMDDNGLHTVIEFLTYLHLKEIGALDNLPSLVSSEEISQS</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>--------------------------------GWTLNSAGYLLGPHAVDNHRSFIEKHGLGG--EL------------------------------------------------------</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>XP_030055388.1 galanin peptides isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MQKAISVFLVSLLLSTNFTYTFGLVLSAKEKRGWTLNSAGYLLGPHAVDNHRSFIEKHGLGGKRELQAEENTKLGNFLKTWMDDNGLHTVIEFLTYLHLKEIGALDNLPSLVSSEEISQS</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>--------------------------------GWTLNSAGYLLGPHAVDNHRSFIEKHGLGG--EL------------------------------------------------------</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>XP_030055401.1 cytochrome c oxidase assembly factor 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MPKYYEDKEEEQTACAGVREDLKTCLLETDCVLKEGKSPKQCLREGHCKALQVTFFECKRSVLDTRSRFRGRKGY</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>--------------------------------------PKQCLREGHCKALQVTFFECK-SVLDTRSRFRGRKGY</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.7200000286102295</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>XP_030055418.1 augurin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MICSRRSMYSGLALAALVTLLIVCLGPVGSQGNKLRMMLQKQNGAAPAKTEVSVSENKAKEFLGTLNRQKRQLWDRTLPDVQQWYQQFLYLGFDETKFEDDVSYWMSLGRRGNEYYGGYYQHHYDEDAPIGPRNPHTFRHGAGVNYDDY</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------GTLNR---QLWDRTLPDVQQWYQQFLY------------SYWMSLGRRGNEYYGGYYQHHYDEDAPIGPRNPHTFRHGAGVNYDDY</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>XP_030056420.1 tissue factor pathway inhibitor 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MVSASVGALLGASLVLRVLGTLLDNREICLLPSDDGPCNALSFRYYYDRYSQSCEEFAYGGCEGNANNFLTLEDCETTCWMIKKVPKICRQEADTGPCRASIKRYFYNLISKRCEEFIYGGCYGNDNNFDDEASCMDFCDPKKVSPMFCYTPKDEGSCSASVTRYFYNAENKACEEFSYTGCGGNSNNFVTLKDCNNVCKKVRKSRRRPLKIPQKAIA</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------C-TTCWMIKKVPKICRQEADTGPCRASIKRYFYNLIS-RC--FI--G-------------CMDFCD--KVSPMFCYTP----SCS-S-TRYF-----KA---FSYTGCGGNSNNFVTLKDCNNVCKKVRKSRRRPLKIPQKAIA</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>XP_030056433.1 mitotic-spindle organizing protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MASAANLSAVRDTMDVLLEISKLLNTGLDMETLSICVRLCEQGINPEALSSVIKELRKATEALKASENIAS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>----------------------------------ICVRLCE-GINPEALSSVIK-----------------</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>XP_030056616.1 CD59 glycoprotein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MSGNKWNCVLLSLFFLFLVFCSSGYALKCLVCTSTTQVCTTNHTCPKGDYSCLRITVGTSKTYRCEQHNNCKVEILQKEFGNSFSFYCCQGNDLCNTAIAIPAHKTLLGLLTLIAVVWLVCF</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>---------------------------KCLVCTSTTQVCTTNHTCPKGDYSCLRITVGTSKTYRCEQHNNCKVEILQKEFGNSFSFYCCQGNDLCNTAIAIPAHKTLL----LIAVVWLVCF</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>XP_030056718.1 midkine isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MQLRGIIFILLLALIAISSAARNKKEKGKKGASDCAEWQWGPCTPNSKDCGVGFREGTCKEETVRLKCKIPCNWKKEFGADCKYKFESWGGCDAATGMKARSGTLKKSLYNAECQETIQVTKPCSPKTKSKPKAAKKGKGKE</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>-----------------------KKEKGKKGASDCAEWQWGPCTPNSKDCGVGFREGTCKEETVRLKCKIPCNWKKEFGADCKYKFESWGGCDAATGMKARSGTLKKSLYNAECQETIQVTKPCSPKTKSKPKAAKKGKGK-</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>XP_030056720.1 midkine isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MQLRGIIFILLLALIAISSAARNKKEKGKKGASDCAEWQWGPCTPNSKDCGVGFREGTCKEETVRLKCKIPCNWKKEFGADCKYKFESWGGCDAATGMKARSGTLKKSLYNAECQETIQVTKPCSPKTKSKPKAKKGKGKE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-----------------------KKEKGKKGASDCAEWQWGPCTPNSKDCGVGFREGTCKEETVRLKCKIPCNWKKEFGADCKYKFESWGGCDAATGMKARSGTLKKSLYNAECQETIQVTKPCSPKTKSKPKAKKGKGK-</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>XP_030057031.1 protein canopy homolog 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MNDYNLHVDPETQEKSYKRFAPRDGEQIGAIDFNNFQFNADTSNYLKFVCESVVEKHEDEILSLIAQEADSLAGKLCSEKTGFCQVSSHSEL</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>---------------------PRD--QIGAIDFNNFQF-AD---Y-K-------------------------AGKLCSEKTGFCQVSSHSE-</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>XP_030057451.1 thymosin beta-4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MSDKPDMAEIEKFDKAKLKKTETQEKNPLPSKETIEQEKQASE</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-------------DKAKLKK-----------------------</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>XP_030057535.1 histone H2A.V [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MAGGKAGKDSGKAKAKAVSRSQRAGLQFPVGRIHRHLKTRTTSHGRVGATAAVYSAAILEYLTAEVLELAGNASKDLKVKRITPRHLQLAIRGDEELDSLIKATIAGGGVIPHIHKSLIGKKGQQKTA</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>-----AGKDSGKAKAKA---SQRAGLQF------------------------------------------------LK---ITPRHLQ-AIR-----DSLIK-TIAGGGVIPHIHKSLIGKKGQQKTA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>XP_030057543.1 vesicle-associated membrane protein 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MSTNLEHCQKEADEVTVIMLNNVTNVIERDGKLKDLEVRSDKLLDMSMNFAKTAVNVERKTRWKTTKCKIIVISAIVVVVLLVLIITILIIYL</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------KTTKCKIIV---------------------</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>XP_030057702.1 major prion protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MAKSLLTWGIVVLLFLTWIDISQPLKIKTGKSKSGSKKPTSNWGSWGNPNSGTGNTGGTWGNRNPSYPGSNWNNWGQNYNPYGGGSSYNKQWKPHNKAKPNMKMMAGAAVAGAVAGGIGGYALGNAVGRSRIFFDDDYQRYYYNQHPNQFPDRVYRPQYNTNQRVTEDIFVNDCFNYSMTEYVVKPSVEKNVNETDAMETQVMQHVIRQLCIREYQMASGAKILTPPSLVLCVLLFISLVTQ</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>-------------------------------SKSGSKKPTSNWGSWGNPNSGTGNTGGTWGNRNPSYPGSNWNNWGQNYNPYGGGSSYNKQWKPHNKAKPNMKMMAGAAVAGAVAGGIGGYALGNAVGRSRIFFDDDYQRYYYNQHPNQFPDRVYRPQYNTNQRVTEDIFVNDCFNYSMTEYVVK-----------------------QLCIREYQMASGAK--------------------</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>XP_030057718.1 gastrokine-1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MKTLIVIAALLGVFLAPSLGNDNINIVNQDNIGGDDHQTVNIDNHDNIANINNYNGWNSWDSICDYSRGSFAARFFDKKICVVGKINKASFPSLAQLSEVARDKTRSRAPTPMSYSVSPNKVTDVGQFGKHIQALCKDIPTYTSQEAKDGQFSGFALCKSSSIITILGISFCF</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>-------------------------------------------------NINNYNGWNSWDSICDYSRGSFAARFFDKKICVVGK----------------------------------------GQFGKHIQALCKDIPTYTS---KDGQFSGFALCKSSSIITILGISFCF</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>XP_030057983.1 dynein light chain Tctex-type 3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MEEQASNGEADFNAEEASSIVKECVDVILGGLSYDQDKINQWMAAVVEQCLTHLVKLGKMYKYIVSCTVMQKSGAGLHTANSCFWDNATDGSCTVRWENRTMYCVVNVFAIAIPS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>---------------------------------Y-Q-KINQWMAAVVEQCLTHLVKLGKMYKYIVSCTVMQKSGAGLHTANSCFWDNATDGSCTVRWENRTMYCVVNVFAIAIPS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>XP_030059034.1 E3 ubiquitin-protein ligase RNF152 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>METLSQDSLLECQICFNYYSPRRRPKLLDCNHTCCSVCLQQMRASHKDLRCPWCRGVTKLPPGFSVSQLPDDPDIVGVVAIPHTSESTPVFIKLPSNGCYMLPLPLSKERALLPGDIGCRLLPGSQQKSVTVVTVPVEQQPLEGGIPQEVGDEEQDRRGVVKSSTWSGVCTVILVACVLVFLLGIVLHNMSCISKRFTVISCG</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>-------------I-FNYYSPRRRPKLLDCNHTCCSVCLQQMRASHKDLRCP-----------------------------------------------------------------------------------------------------------VV--STWSGVCTVILVACVLVFL-GIVLHNMSCISKRFTVISC-</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>XP_030059036.1 stromal cell-derived factor 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MAVKVTALLAFMIVSVVFSEEKPVSLNYRCPCRFVESNTSVSRNSIKHLRIISTPSCSLQIVARLKQNNKQVCLDPKLKWIQEYLEKALSKKSKM</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>------------------------SLNYRCPCRFVESNTSVSRNSIKHLRIISTPSCSLQIVARLKQNNKQVCLDPKLKWIQEYLEKALSKKSK-</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>XP_030059512.1 interferon alpha-inducible protein 27-like protein 2A [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MSDRNVHNAGFTPLGITRGSTASNIMANDAKGHGGGVPSGGATSSLQKMGARSSTHSSGFTSSGIAGGSKASSMMSDQARSHGGGVPKGSTVPTIQSVSMGGKGGKC</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>----------FTPLGITRGSTASNIMANDAKGHGGGVPSGGATSSLQKMGARSSTHSSGFTSSGIAGGSKASSMMSDQARSHGGGVPKGSTVPTIQSVSMGGKGGKC</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>XP_030060762.1 beta-microseminoprotein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MKGFLVVTFAVVFVVIQCNAQCIVEPVQPQSPNKLPEGCVDKKNVIHKIGSSWNTTDCYTCNCLSHDNKVYLSCCGRAIRPSGFDEKHCELIFDQTSCTYSVVEKEDHSKHCSFGGVVVG</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>--------------------QCIVEPVQPQSPNKLPEGCVDKKNVIHKIGSSWNTTDCYTCNCLSHDNKVYLSCCGRAIRPSGFDEKHCELIFDQTSCTYSVVEKEDHSKHCSFGGVVVG</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>XP_030060776.1 C-C motif chemokine 17 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MNHLQTALLLILLLGTLTQPNMGRNSIECCTEYVRNRIRLTLLKSFYETPSDCPKKAVVFLTARKHICADPSMKWVRKAKVHIKKLQQKQ</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-----------------------RNSIECCTEYVRNRIRLTLLKSFYETPSDCPKKAVVFLTARKHICADPSMKWVRKAKVHIKKLQQKQ</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>XP_030060799.1 trefoil factor 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MEYKLLCVLAITLVLGFSSLAEGQAAYMEKQCSQSPKQRENCGQAGISATECYDKGCCFDNSVPETIWCFHPQNECL</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>------------------------AAYMEKQCSQSPKQRENCGQAGISATECYDKGCCFDNSVPETIWCFHPQNECL</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>XP_030060800.1 putative gastrointestinal growth factor xP1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MEKKVICVLAIALVLGLSSSAKGQAPFTEAQCQIQPKFRINCGPPSISAQACYDKGCCFDSDKTGVIWCYYPSPEAECVL</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-----------------------QAPFTEAQCQIQPKFRINCGPPSISAQACYDKGCCFDSDKTGVIWCYYPSPEAECVL</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>XP_030060897.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>XP_030060998.1 phospholipase A2, minor isoenzyme-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MFQLLLVFFLAASAVNAAPSKALWQFRNIIKCTMPNSKPLEEFNRYGCYCGLGGQGNPLDELDTCCQVHDNCYNAAKQVENCSSLIHNPYTEVYAYTCSGTTVTCESDNSPCEMHVCECDRQAALCFSKASYNEDFKDVDKNKHC</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>------------------P-KALWQFRNIIKCTMPNSKPLEEFNRYGCYCGLGGQGNPLDELDTCCQVHDNCYNAAKQVENCSSLIHNPYTEVYAYTCSGTTVTCESDNSPCEMHVCECDRQAALCFSKASYNEDFKDVDKNKHC</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>XP_030061523.1 uncharacterized protein KIAA0040 homolog [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MDHVSTFFKSLWKTVETKHEEGLYNTICLAVLLVLPTVILILALIICCHCCCCRQKTGSANIQSEKKKKKKNAEEDLWISANPKTMMLEKMPSLSA</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-------------------------------------------LIICCHCCCCRQKTGSANIQSEKKKKKKNAEEDLWIS----------------</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>XP_030061803.1 low-density lipoprotein receptor class A domain-containing protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MTRTHPWKSLDEASFTSTVSILSKEKDEVDCCESCSGACCSRRCVCISVIALLLLGVIAAVIACAVILGIPKRSPGTRQCITADNQTGFLCDDAAVCIEASQVCDRIKSCGNGEDEETVMCSDLPNNLPSYLIFRCGDPQNWIFINQKCNGFNNCGDCSDEIGTLSDCSSSCGPRQWSCTSIFHQYCTCIPRSLCRDRTQHCADWSDEFVCPK</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------------------RQC----------------------------------------------------IFRCGDPQNWIFINQKCNGFNNCGDCSDEIGTLSDCSSSCGPRQWSCTSIFHQYCTCIPRSLCRDRTQHCADWSDEFVCPK</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>XP_030061934.1 WAP four-disulfide core domain protein 2-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MMAAGSISLLLALLVLCTDSYPTTPDAEHPGVCPELREWELGNCAIRCKSDSDCLNYMKCCGTGCDGSLCKLPNDKPGLCPEAIQAESCPSANQCKSDNQCQGTLKCCQSGCSQLSCQSPTAGSKQL</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>------------------------------GVCPELREWELGNCAIRCKSDSDCLNYMKCCGTGCDGSLCKLPNDKPGLCPEAIQAESCPSANQCKSDNQCQGTLKCCQSGCSQLSCQSPTAGSKQL</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>XP_030061935.1 WAP four-disulfide core domain protein 2-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MMAAGSISLLLALLVLCTDSYPTTPDAEHPGVCPELREWELGNCAIRCKSDSDCLNYMKCCGTGCDGSLCKLPNDKPGLCPEAIQAESCPSANQCKSDNQCQGTLKCCQSGCSQLSCQSPTGSKQL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>------------------------------GVCPELREWELGNCAIRCKSDSDCLNYMKCCGTGCDGSLCKLPNDKPGLCPEAIQAESCPSANQCKSDNQCQGTLKCCQSGCSQLSCQSPTGSKQL</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>XP_030062120.1 trypsin inhibitor-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MKTMMVLTVGLLLFCVLQSQAEDELLPPEDNRAACTLPIEPGGCKALYIRWAYDSEQGHCVPFNYGGCRGNANNFLTEEECNGLCKIS</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>--------------------------------AACTLPIEPGGCKALYIRWAYDSEQGHCVPFNYGGCRGNANNFLTEEECNGLCKI-</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>XP_030062482.1 histone H2A-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MSGRGKTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAVRNDEELNKLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQSQEY</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-----KTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY---------------------D-KKTRIIPRHLQLAVR------KLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQ----</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>XP_030062484.1 histone H2A-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MSGRGKTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAVRNDEELNKLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQSQEY</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-----KTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY---------------------D-KKTRIIPRHLQLAVR------KLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQ----</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>XP_030062491.1 histone H2A-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MSGRGKTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAVRNDEELNKLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQSQEY</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-----KTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVG-GA-V-------------------------KTRIIPRHLQ-A-R-------LLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQQ----</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>XP_030062494.1 histone H2A-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>MSGRGKTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAVRNDEELNKLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQHSQEY</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-----KTGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY---------------------D-KKTRIIPRHLQLAVR------KLLGGVTIAQGGVLPNIQAVLLPKKTGGSAAPTAHPKGGKKMSQHSQE-</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>XP_030062575.1 histone H2A type 2-B-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MSGRGKSGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLSAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGGVTIAQGGVLPNIQAVLLPKKTQTKK</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-----KSGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY------------------AARDNKKTRIIPRHLQLAIRND----KLLGGVTIAQGGVLPNIQAVLLPKKTQ-KK</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>XP_030062695.1 LOW QUALITY PROTEIN: allograft inflammatory factor 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MTAVHNTQGGKMFGLLKAQQDLRLQEVNQEFLDDEKFNNEDDSEEKLTSFKRKMCFFDLNDEGEIDMMSLKRMMEKLGVPKTHLEVKKMISEVTGGASETICYRDFVKMMLGKRSAVLKL</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>------------FG-------------------------------------------------------------------------------------TI-YRDFVK------------</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5299999713897705</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>XP_030062805.1 inter-alpha-trypsin inhibitor-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MKLMLVLSVGLLLTLLQAHALEESLPEGHRDFCLLEPDPGLCQALMPKYFYNSTSQACERFNYGGCGGNKNNFVSKDQCVESCINKNYCGQDKVVGPCKAKNNRYFYNSTSKACELFVYGGCFGNGNNFFLEEECKQICRTKGSADFWL</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>--------------------------------C----DPGLCQALMPKYFYNSTSQACERFNYGGCGGNKNNFVSKDQCVESCINKNYCGQDKVVGPCKAKNNRYFYNSTSKACELFVYGGCFGNGNNFFLEEECKQICRTKGSADFWL</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>XP_030062919.1 kappaPI-actitoxin-Avd3b-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MRLILVLTVGLLLTCVLQAEAQSTTTTTTSWNEWPYWTTTTTTYREICSLPIDWGSCTSTQPRWGYNIYSGRCELFYYQGSYGNENNFLTYEDCKARCC</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>--------------------------------EWPYWTTTTTTYREICSLPIDWGSCTSTQPRWGYNIYSGRCELFYYQGSYGNENNFLTYEDCKARCC</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>XP_030063314.1 protein FAM136A isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MAEEQQRRVEGAVDQMVKGLEREQIRKMQGKMFRCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKEPQVKLQLQTCITQCVDDHMNLIPSMTRKLKETLIAAAK</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-------------------------------MFRCSADCCDNDAASMQQVHNCIERCHAP-------------RFQDRLARCTMHCNDKARDSLDGGSKE---KLQLQTCITQCVDDHMNLI----RKLKETLI-A--</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>XP_030063315.1 protein FAM136A isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MFRCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKEPQVKLQLQTCITQCVDDHMNLIPSMTRKLKETLIAAAK</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>--RCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKE---KLQLQTCITQCVDDHMNLI----RKLKETLI-A--</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>XP_030063316.1 protein FAM136A isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MFRCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKEPQVKLQLQTCITQCVDDHMNLIPSMTRKLKETLIAAAK</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>--RCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKE---KLQLQTCITQCVDDHMNLI----RKLKETLI-A--</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>XP_030063317.1 protein FAM136A isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MFRCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKEPQVKLQLQTCITQCVDDHMNLIPSMTRKLKETLIAAAK</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>--RCSADCCDNDAASMQQVHNCIERCHAPLAQAQSIVTSELERFQDRLARCTMHCNDKARDSLDGGSKE---KLQLQTCITQCVDDHMNLI----RKLKETLI-A--</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>XP_030063372.1 PDZK1-interacting protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MFTIPLYLLCVLITLGSISCQQENVPIQRRFPQWLTGLIAVSVFLFLVLVVFVVNRVWCEDKKKNEPIAVNKKDEVISNGTEGHYAGIDNFRSPDHDNAYENRIEWEEQVVQTTAM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>-------------------------P-Q-RFPQWLTGL------------------VWCEDKKKNEPIAVNKK-------------------------------------------</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>XP_030063383.1 sushi domain-containing protein 3 isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MQTATASVLDISRTVLIAEDGNHGHNRTAISKYETFGFKVAVIASIVSGAIILLMSMAFLTCCLIKCIKKNERKRTEREMQLWHQLEREELENMQTSYFGLKGRNNNNNKFRNKAVFNEWLSMAYDNQGFCRSQESQIRDITRPMVSRECHSQSKSNNAQTVSDKRAISGCNRIYTVSGTHVVEVYRQDRGAQKKQGSHMPG</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>----------------------------AISKYETFGFKVAVI-SIVS-AIILLMSMAFLTCCLIKC------------------------------YFGLKGRNNNNNKFRNKAVFNEWLSMAYDNQGFCRSQESQIRDITRPMVSRECHSQSKSNNAQTVSDKRAISGCNRIYTVSGTHVVEVYRQDRGAQKKQGSHMPG</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>XP_030063672.1 allograft inflammatory factor 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MKSSTMKMMRKKNSPLLNRRFLEFDLNDEGEIDMMSLKRMMEKLGVPKTHLEVKKMISEVTGGASETICYRDFVKMMLGKRSAVLKLIMMFEGRANGTSCKPAGPPAKRDISSLP</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------------D---------------I-MF---ANGTSCKPAGPPAKRDISSLP</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>XP_030063799.1 DNA repair protein SWI5 homolog isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MQKSNKSRIGLLIQSQRSSKVGAVSKDTIHQEITDLRERDAALSKETAQLVAEGYSLEELDKHISLLHQYNDLRDTGQLLLGRLALQDVSLLAEWKTF</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-------------------------------------------------------------------------------------------L-E-KTF</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>XP_030064110.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQE-S---L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>XP_030064121.1 small integral membrane protein 5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MASQNLSHEVTKIGQKLLNKIQKLPQADHIEIISFAVILLFIFTVLMLAVLACSYCCCDFSKRRRLLRVQPGGEV</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>------------IGQKLLNKIQKLPQADHIE-----------------AVLACSYCCCDFSKRRRLLRVQPGGEV</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>XP_030064575.1 apelin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MDLRLWTLALLLLFLTLTSVCGGPLAESSDGNVPEEDGIRNLVHPKGVRNGAGHRQGHWRKYRRQRPRLSHKGPMPF</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>-----------------------------D--------IRNLVHPKGVRNGAGHRQGHWRKYRRQRPRLSHKGPMPF</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>XP_030064962.1 tumor necrosis factor receptor superfamily member 12A [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MLLAQGLPLPLLVLLLLGLAGAEQAAESACQNGKSWSSDLGKCMDCFSCKKSPKGDFCQTCDDVIAKKNDPMWLIVGGTATIFVMLCVIIGLVIFFTQCRKREKFTTPIEETGGHSAEESLIH</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>----------------------------ACQNGKSWSSDLGKCMDCFSCKKSPKGDFCQTCDDVIAKKNDPMWLIVGGTATIFVMLCVIIGLVIFFTQCRKREKFTTP---------------</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>XP_030065267.1 thymosin beta-15B [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MSDPKPDMSEVEKFDHRKLKKTSTEEKNTLPSKETIEQEKAACQKS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>-----------------KL----------------------ACQK-</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>XP_030065268.1 thymosin beta-15B [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MSDPKPDMSEVEKFDHRKLKKTSTEEKNTLPSKETIEQEKAACQKS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>-----------------KL----------------------ACQK-</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>XP_030065556.1 uncharaterized LOC112694756 homolog [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MAPLTFPPSSTPLHGSISGLMLPLPAIVLLAVTAYLLFLLLVISCQQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>---------------------------------------------QQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>XP_030065557.1 uncharaterized LOC112694756 homolog [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MAPLTFPPSSTPLHGSISGLMLPLPAIVLLAVTAYLLFLLLVISCQQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>---------------------------------------------QQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>XP_030065558.1 uncharaterized LOC112694756 homolog [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MAPLTFPPSSTPLHGSISGLMLPLPAIVLLAVTAYLLFLLLVISCQQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>---------------------------------------------QQCLLARGFCTDCCSWGKAGQLGLCDCCLACAESCDCRVPSMTHFLDSCCPRGTTCDPGSCLTSQCCPLCDFACAYQPPDCETINCICFEVRLR</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>XP_030065590.1 chymotrypsin inhibitor Ani s 6-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>MVSGDLGKEEVKLSMMKTSSAAFLFLVLALPLLLVSGMPTSTTALPLLLVSGMPTSTTVQSCPPNMRYNPCGTSCPETCASSTTMCNMMCVAGCVCQEGYVRRCDKNDVCVPKSECYIGMCSNKSPCKPCPPGSMCPAVCLPPDY</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------SCPPNMRYNPCGTSCPETCASSTTMCNMMCVAGCVCQEGYVRRCDKNDVCVPKSECYIGMCSNKSPCKPCPPGSMCPAVCLPPDY</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>XP_030065591.1 SCO-spondin-like isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MMKTSSAAFLFLVLALPLLLVSGMPTSTTGCIPTDGQGGCRSYGKAEMVQIRDRSLEARGAGAQVASRRNGHGRVGHHDPEENCPPDMYYDSCGTTCPEACDNINLTMICTMMCVPGCFCQDGYVMICTGNDTCVPESECDIEMC</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-----------------------------GCIPTDGQGGCRSYGKAEMVQIRDRSLEARGAGAQVASRRNGHGRVGHHDPEENCPPDMYYDSCGTTCPEACDNINLTMICTMMCVPGCFCQDGYVMICTGND-C-P--E------</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>XP_030065592.1 SCO-spondin-like isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MMKTSSAAFLFLVLALPLLLVSGMPTSTTGCIPTDGQGGCRSYGKAEMVQIRDRSLEARGAGAQVASRRNGHGRVGHHDPEENCPPDMYYDSCGTTCPEACDNINLTMICTMMCVPGCFCQDGYVMICTGNDTCVPESECDIEMC</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-----------------------------GCIPTDGQGGCRSYGKAEMVQIRDRSLEARGAGAQVASRRNGHGRVGHHDPEENCPPDMYYDSCGTTCPEACDNINLTMICTMMCVPGCFCQDGYVMICTGND-C-P--E------</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>XP_030065593.1 venom serine protease inhibitor-like isoform X4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MMKTSSAAFLFLVLALPLLLVSGMPTSTTVQSCPPNMRYNPCGTSCPETCASSTTMCNMMCVAGCVCQEGYVRRCDKNDVCVPKSECYIGMCSNKSPCKPCPPGSMCPAVCLPPDY</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-------------------------------SCPPNMRYNPCGTSCPETCASSTTMCNMMCVAGCVCQEGYVRRCDKNDVCVPKSECYIGMCSNKSPCKPCPPGSMCPAVCLPPDY</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>XP_030065804.1 small ubiquitin-related modifier 3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MSEEKPKEGVKTENDHINLKVAGQDGSVVQFKIKRHTALNKLMKAYCDRQGLSMRQIRFRFDGQPINETDTPAQLEMEDEDTIDVFQQQTGGVC</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-------------------------------K---H-ALNKLMKAY-------------------------------------------TGGVC</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>XP_030065941.1 60S ribosomal protein L39 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MSSHKTFKIKRFLAKKQKQNRPIPQWIRMKTGNKIRYNSKRRHWRRTKLGL</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>------FKIKRFLAKKQKQNRPIPQWIRMKTGNKIRYNSKRRHWRRTKLG-</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>XP_030066134.1 ly6/PLAUR domain-containing protein 6 isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MEPWPGVAWVLLLSFIADLLKTGQSRDFTVKDIINLHPSTTPYPGGFKCFTCERAVDNYECNRWAPDVYCPRETRYCYTQHIMDTRGESISVTKYCVPLERCLSIGCKETKHEGHKICTSCCEGNICNLALPRNATDAVFATTSPVNQTERHLQQIVLILSCLSLLWMTTT</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>----------------------------------------------FKCFTCERAVDNYECNRWAPDVYCPRETRYCYTQHIMDTRGE-I--TKYCVPLERCLSIGCKETKHEGHKICTSCCEGNICNLALPRN-------------------------------------</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>XP_030066135.1 ly6/PLAUR domain-containing protein 6 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MEPWPGVAWVLLLSFIADLLKTGQSRDFTVKDIINLHPSKTRYCYTQHIMDTRGESISVTKYCVPLERCLSIGCKETKHEGHKICTSCCEGNICNLALPRNATDAVFATTSPVNQTERHLQQIVLILSCLSLLWMTTT</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-----------------------------------------RYCYT--IMDTRGE-I--TKYCVPLERCLSIGCKETKHEGHKICTSCCEGNICNLALPRN-T-----------------------------------</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>XP_030066138.1 venom serine protease inhibitor-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>MKTSSPAFLFLVLALPLLLMSGMPPLEAVPSCPPNMRYDSCGKDCPETCDSSTNSPRECSKMCVADCVCKEGYVRKCDKDDVCVPKSECYTKTCPIKILCKPCTAPPGAACLDVCISPDV</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>------------------------------SCPPNMRYDSCGKDCPETCDSSTNSPRECSKMCVADCVCKEGYVRKCDKDDVCVPKSECYTKTCPIKILCKPCTAPPGAACLDVCISPDV</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>XP_030066172.1 NADH dehydrogenase [ubiquinone] 1 alpha subcomplex subunit 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MWFEILPSLTIMTICLIIPGVATTQIHRWTNGGKEKRIARYEYQWYLMERDRRVSGVNLYYKSKGLDNVD</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>------------------P-VATTQIHRWTNGGKEKRIARYEYQWYLMERDRRVSGVNLYYKSKGLDNVD</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>XP_030066655.1 venom serine protease inhibitor-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MKTSSPAFLFLVLALPLLLMSGMPPLEAVPSCPPNMRYDSCGKDCPETCDSSTNSPRVCDMMCVVGCVCKEGYVRKCHKDDVCVPKSECYTKTCPIKSRCKPCTAPPGAACPDVCIPPDEIMAA</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>------------------------------SCPPNMRYDSCGKDCPETCDSSTNSPRVCDMMCVVGCVCKEGYVRKCHKDDVCVPKSECYTKTCPIKSRCKPCTAPPGAACPDVCIPPDEIMAA</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>XP_030067229.1 C-X-C motif chemokine 14 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MRRLIGAALVLLVVICSVSVQGSKCKCSRKGPKIRYTDVQKLEIKPKYPHCQEKMVIVTVQKMSRFRGQQYCLHPKLHSTKRLVKWYTLWKEKWKVYTE</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>----------------------SKCKCSRKGPKIRYTDVQKLEIKPKYPHCQEKMVIVTVQKMSRFRGQQYCLHPKLHSTKRLVKWYTLWKEKWKVYTE</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>XP_030067650.1 FXYD domain-containing ion transport regulator 3 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MVVPRRIHIMQPVRASFFLALAALPVLKANDPEDKDSPFFYDYHALRVGGLICAAILCVLGIIVLLSGKCRCKFNQKNRNKRRSESQVQQQLITPGSATNC</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>------------------------------------------------GGLICAAILCVLGIIVLLSGKCRCKFNQKNRNKRRSESQVQQQLITPGSATNC</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>XP_030067853.1 neuropeptide W [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MLGHCLGLLLLLQPISAWYKHAASPRYHTVGRASGLLMGIRRSPYLWRRDVALGQPQDLSDGSGALRLWRRLRSAGAQEEALPAGSTEVRPKGLSVAGPRRRLRTEVAGPDGRLRVRAGPCRDPTTRGTLHCD</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-----------------------SPRYHTVGRASGLLMGIRRSPY-----------------------------------------------GL-----R-RLRTE-AGPDGRLRVRAGPCRDPTTRGTLHCD</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>XP_030067898.1 WAP four-disulfide core domain protein 3-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MKAAGGIFLTVVLLSLWAEQQAVSLQQSEVKAGVCPPARNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTGTCPAQPQKTSTEGSGDECTSDSECAGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>--------------------------------GVCPPARNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAA---G----------------E-TSDSECAGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQ-</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>XP_030067899.1 perlwapin-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MKAAGGIFLTVVLLSLWAEQQAVSLQQSEVKAGVCPPARNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTGTCPAQPQKTSTEGSGDECTSDSECAGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSATKQK</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>----------------------------------CPPARNIKKTPFCDSFCT--K----NKKCCDDGCDKFCK--------------------------TS-S--AGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPYDPVRCIRAARSTCASDSGCPGDQKCCSHMCGMSCLAVSATKQ-</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>XP_030067900.1 perlwapin-like isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MKAAGGIFLTVVLLSLWAEQQAVSLQQSEVKAGVCPPARNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTGTCPAQPQKTSTEGSGDECTSDSECAGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQK</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>--------------------------------GVCPPARNIKKTPFCDSFCTNDKDCSGNKKCCDDGCDKFCKPPAAEKTG---------------DECTSDSECAGTFKCCPGQSGKACTPPSGEAPGFCPPNVLPPGIGATICIVDCNNCSAEEKCCSMGCTRRCMKTSQDKPGSCPNDPIKCVRAGPSTCASDSGCPGDQKCCSYMCGMNCLAVSATKQ-</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>XP_030067943.1 histone H3.3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPSTGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSAAIGALQE-S---L-GLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>XP_030068549.1 TYRO protein tyrosine kinase-binding protein-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>MARCAHASFSIFLCVLGILGIVHGQRDCTGCYQMDGVAIAAIIVGDIIITVLIALAVFFLARKLNAKKNGAGNMENQKSGITETESHYQELQGHKLDLYCDLNQIRK</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-------------------G-VHGQRDCTGCYQMDGVAIAAIIVGDIIITVL---AVFFLARKLNAKKNGAGNMENQKSGI-------------KLDLYCDLNQ--K</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>XP_030068550.1 TYRO protein tyrosine kinase-binding protein-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MARCAHASFSIFLCVLGILGIVHGQRDCTGCYQMDGVAIAAIIVGDIIITVLIALAVFFLARKLNAKKNGAGEEFREHAGWNYEKQMRKYGEPEIGHH</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-------------------G-VHGQRDCTGCYQMDGVAIAAIIVGDIIITVL--LAVFFLARKLNAKKNGAGEEFREHAGWNYEKQMRKYGEPEIGHH</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>XP_030068618.1 hemoglobin subunit beta-2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MVHWTDDEVKHVHDIFSKITLTEVGGDALARLLVVYPWCQRYFTSFGNLGSEDSICHNAQVKAHGLKVLSSIAEAANHLSDIKGFYTKLSKHHSEKLHVDPANFMLFARILLCTLARHCPKLFDADVQHACNKYLRVCADALGKQYH</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-------------------------------LLVVYPWCQRYFTSFGNLGSEDSICHNAQVKAHGLKVLSSIAEAANHLSDIKGFYTKLSKHHSEKLHVDPANFMLFARILLCTLARHCPKLFDADVQHACNKYLRVCADALGKQYH</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>XP_030068630.1 bladder cancer-associated protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLVCYSCWGNCFLYHCSDSHLPESAHDPSIVGT</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>----------------------F-----------------KPCTICALVFLAALFLVCYSCWGNCFLYHCSDSHLPESAHDPSIVG-</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>XP_030068631.1 bladder cancer-associated protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLVCYSCWGNCFLYHCSDSHLPESAHDPSIVGT</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>----------------------F-----------------KPCTICALVFLAALFLVCYSCWGNCFLYHCSDSHLPESAHDPSIVG-</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7599999904632568</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>XP_030068764.1 ATP synthase subunit epsilon, mitochondrial [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MVAFWRQAGLSYIRYSQICAKAVRDALKQQYKTEAEKAAVSNIKIVKPKKDN</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>-----RQAGLSYIRYSQICAKAVRDALKQQYKTEAEKAAVSNIKIVKPKKDN</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>XP_030068914.1 fungal protease inhibitor F-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MKSFHLTLLLLALALQLLFLEQIRAISCPKNSHFTECDPSPCEVTCDRRSFQCNTMCQLGEFCACDPNYIRDSKGICIPPSQCPQTAK</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-------------------------ISCPKNSHFTECDPSPCEVTCDRRSFQCNTMCQLGEFCACDPNYIRDSKGICIPPSQCPQTAK</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>XP_030068927.1 C-X-C motif chemokine 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MFIKLIFLALLAINLVASRSITMDGGRCSCYRTVSKITFHSRQVKTIEILPPSASCENVEIIVNLKNGRQLCLDPHEDKIKNIFRELINKKKI</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>---------------------TMDGGRCSCYRTVSKITFHSRQVKTIEILPPSASCENVEIIVNLKNGRQLCLDPHEDKIKNIFRELINKKKI</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>XP_030069037.1 cadherin-4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MAGKGVGEMQRACKMSAGSDPVLLLLLLGLAGFLRAQHTRELTVRPTCVPGFSEEGYTALVSPDIPEGQKLLKERCLNSQDCNKRRSYVSL</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>---------QRACK--------------------RAQHTRELTVRPTCVPGFSE-----LVSPDIPE-QKLLKERCLNSQDCNKRRSYVS-</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.6299999952316284</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>XP_030069119.1 keratin, type I cytoskeletal 9-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MKIAIAFLLVALSCCYQDALGLGLLGGLGGLGGLTGGLTGGLTGGLSGGAGVIGGATGGVSGGISGGAGMTGAVSGGAGAIGGATGGVSGVGGLTSGLTAGISGGSGAGASGGLLGGLLGGAGDSLDVSVLVGCVQQLLTSDATKFVNSVGGFLTSHCNYKKWGTEDSLRQACRAAKNMLNDAGCSADEVLKIVGLDITQDFLGEVGKQCDPLLSAIYDLVNKVLPQSDIVLNTICSLELDKVIDALEGLLSGGVSAVGGLASGVLDAAGGVTGGILDGALGAVGGVTGGLSVLG</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------L---VSAVGGLASGVLDAAGGVTGGILDGALGAVGGVTGGLSVL-</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>XP_030069208.1 interleukin-17B [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MISSQKLFLFCLFFVLTVLVPAEHPKIKHKKEKSRKKDHHGVNTHRGFKKTSPDPVLRVNAVPSAGVRDYTLVEDYEQSLQDMVNQLLNSSEPAGSKCEVNLRLWVSNKRSLSPWTYSINHDEHRIPVDIPEARCLCSGCINPFTMQEDRTMSSIPIYSKIPVKRQLCHVAKAGQKHKPRKKCRKYESVMENVAVGCTCIL</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------------------------------W-----SLSPWTYSINH-E-RIPVDIPEARCLCSGCINPFTMQEDRTMSSIPIYSKIPVKRQLCHVAKAGQKHKPRKKCRKYESVMENVAVGCTCIL</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>XP_030069337.1 ly6/PLAUR domain-containing protein 3-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MTGGLECYSCTEEGDAGCSADKIVKVSCAQAMNVCMDYTHTIKTDALNMTIRKKGCSSGLTKTYDSEGSFVQHCYVTHINACNTSLCNNDLTNAIRPRLCTIASDVPNGMECYACLSFSKDQCSPKYAEKIKCTGYNTNCYKENQTVSLGNDYSSRTIYIETCSQDGSCSRSYSSTNMHMKIKGKGSCCSGKFCNKAHVFFSSVSHFFLLLGMLIVTVLL</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>----------------GCSADKIVKVSCAQAMNVCMDYTHTIKTDALNMTIRKKGCSSGLTKTYDSEGSFVQHCYVTHINACNTSLCNNDLTNAIRPRLCTIASDVP-GME-YACLS-S-DQCS-KYAEKIKCTGYNTN-------------------------------RSY---NMH-KIK-KGSCCSGKFCNKAHVFF-------------------</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>XP_030069378.1 WAP four-disulfide core domain protein 5-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MKTMGSIVFLSVLLAFCTQLGSASFPSTDHPGGCPYDSGFCKQTLPAMCSGDVNCAPNAKCCYSMCKMQCVAAIFDKPGECPNIAEKCALPKTECSNDFDCKDAYKCCPICGRLCWPSN</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>-----------------------SFPSTDHPGGCPYDSGFCKQTLPAMCSGDVNCAPNAKCCYSMCKMQCVAAIFDKPGECPNIAEKCALPKTECSNDFDCKDAYKCCPICGRLCWPSN</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>XP_030069379.1 WAP four-disulfide core domain protein 12-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MKTIGSIVFLSVLLAFCTELGSASFPGINHPGGCPYDNVRCIQSYPPMCSGDVECAPNAKCCYSKCKMQCVAAIFD</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-----------------------SFPGINHPGGCPYDNVRCIQSYPPMCSGDVECAPNAKCCYSKCKMQCVAAIFD</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.9200000166893005</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>XP_030069380.1 WAP four-disulfide core domain protein 12-like isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MKTMGSIVFLSVLLAFCTQLGSASFPSTDHPGGCPYDNVRCIQSYPPMCSGDVECAPNAKCCYSKCKMQCVAAIFD</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>----------------------ASFPSTDHPGGCPYDNVRCIQSYPPMCSGDVECAPNAKCCYSKCKMQCVAAIFD</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>XP_030069381.1 WAP four-disulfide core domain protein 5-like isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MKTIGSIVFLSVLLAFCTELDSASFPSKDHPGFCPDDFMRCLLSYPPDCTYDVECATYEKCCSYMCKMQCKAAIFD</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>----------------------------DHPGFCPDDFMRCLLSYPPDCTYDVECATYEKCCSYMCKMQCKAAIFD</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>XP_030069382.1 WAP four-disulfide core domain protein 5-like isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MKTMGSIVFLSVLLAFCTQLGSASFPSTDHPGFCPDDFMRCLLSYPPDCTYDVECATYEKCCSYMCKMQCKAAIFD</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>-----------------------SFPSTDHPGFCPDDFMRCLLSYPPDCTYDVECATYEKCCSYMCKMQCKAAIFD</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>XP_030069383.1 WAP four-disulfide core domain protein 5-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MKTIGSIVFLSVLLAFCTELGSASFPSKDHPGFCPDDIIQCVVAYPPDCTYDVECATNEKCCSSMCKMQCIPAIFD</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-----------------------SFPSKDHPGFCPDDIIQCVVAYPPDCTYDVECATNEKCCSSMCKMQCIPAIFD</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>XP_030069400.1 reactive oxygen species modulator 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MPVAVGPYGQSQPSCFDRVKMGFMMGFAVGMAAGALFGTFSCLRIGMRGRELMGGVGKTMMQSGGTFGTFMAIGMGIRC</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>------------PSCFDRVKMGFMMGFAVGMAAGALFGTFSCLRIGMRGRELMGGVGKTMMQSGGTFGTFMAIGMGIRC</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>XP_030070459.1 glycoprotein hormone beta-5 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MRLCHVMWGSLQLLLLTACLHVLKTSNVNLHTFIGCAVREFTFVAKKPGCRGLRITTDACWGRCETWEKPVLDPPYLEAHHRVCTYNETKLVTLKLPNCGPDVDPFYTYPVAIRCGCDICSTASTECETL</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>------------------------------HTFIGCAVREFTFVAKKPGCRGLRITTDACWGRCETWEKPVLDPPYL-----VCT-N--KLVTLKLPNCGPDVDPFYTYPVAIRCGCDICSTASTECET-</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>XP_030070914.1 WAP four-disulfide core domain protein 2-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MKTSGGAFLFVVFLTLWTALQSENPGMCPVPNEYGLGRCSTACTHDIQCSKDKKCCKTACGGTACRKPFFPNRSEKPGRCPDPDEYGELGFGICEEMCIQDTECSGDLKCCKTACGVTSCLKPQTFPNRPASNRGRCPYNWKPCRTPFFPSVSQCQGDWQCQMNQKCCSVGCDKQCVNIWAGLPIEY</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>-------------------------GMCPVPNEYGLGRCSTACTHDIQCSKDKKCCKTACGGTACRKPFFPNRSEKPGRCPDPDEYGELGFGICEEMCIQDTECSGDLKCCKTACGVTSCLKPQTFPNRPASNRGRCPYNWKPCRTPFFPSVSQCQGDWQCQMNQKCCSVGCDKQCVNIWAGLPIEY</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>XP_030071317.1 lysozyme C [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MKTLLLILGAFLTLPASDGKVFERCEFAARAKSLGLDGFRGYSLPNWVCTAFHESRFNTRATNFNRIDNSTDYGILQINSRWWCFDGKTPRSKNACGINCSELMTDDITASVICAKRVVSDPAGMGAWVAWRNYCQGRDLSEWIKGCRLDAIGF</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>--------------------VFERCEFAARAKSLGLDGFRGYSLPNWVCTAFHESRFNTRATNFNRIDNSTDYGILQINSRWWCFDGKTPRSKNACGINCSELMTDDITASVICAKRVVSDPAGMGAWVAWRNYCQGRDLSEWIKGCRLDAIGF</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>XP_030071560.1 unique cartilage matrix-associated protein [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MNRKEILLLSGLATFVLLTILQEGEGAALGSPKTDAEKTKPNPKKNIFLQDSEASNFLKRRSKRSPRSRDEVNAENRQRQAADERRREYYEEQRNEYENYAEEQHDEHQERNREHTEQWRQWHYNNMYPSYLYHRYY</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------------------------------------WRQWHYNNMYPSYLYHRYY</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>XP_030071654.1 interleukin-7 isoform X3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MLNVFFRYIFGIPSLMLVLLPSTSPACERRNMTVILENYKNIIQREIDHLEISSLCQIECALQKQAKAIHRNFRCLVYRMSQSLSATLECRCRNAHQKREKAVETKERKKTSKQTEECKTISQPSGEKKCTRALCKLMKTISSFRSCWNKLAYLSSNRTLLENIC</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>-------------------------------------------------------------------AIHRNFRCL-------------CRCRN-H----------------------KTISQPSGEKKCTRALCKLMKTISSFRSCWNKLAYLSSNRTLLENIC</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7300000190734863</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>XP_030072343.1 resistin-like beta [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>MKVIIFFLLIVLLESGFVAANPDQCTISDLETLEKFCKPKECECKLSCSSVKANGAYATCPTGKTAAACSCGMACGSWDIQNEATCHCQCSGIDWTTARCC</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>-------------------------TISDL-TLEKFCKPKECECKLSCSSVKANGAYATCPTGKTAAACSCGMACGSWDIQNEATCHCQCSGIDWTTARCC</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>XP_030072359.1 transmembrane protein 207 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MKGTAGSVLPLTSHTGVFSFALFQVAYSDLQCENSELSLMYSAQPISVWYVWFCPLLLLVVVLCCVILLCLQWWIRKRSKCSARRTLTVVALNDSDAAYETETSHCSYAGAHRHPQNLKFAHACPAIDDGVVGASAPPSYEDIFKTTKV</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------P------------LLCLQWWIRKRSKCSARRTLTVV--------------HCSYAGAHRHPQNLKFAHACPAIDDGVVGASAPPSYEDIFKTTK-</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>XP_030072363.1 somatostatin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>MLSCSVRCALALLSLALVVSSVSAAPTDPRLRQFLQKSLAAAAGKQELAKYFLAELLSEPSQAENEVLESDDLSRGAEQDEMRLELERSANSNPALAPRERKAGCKNFFWKTFTSC</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-----------------------------------------------------------------------------------------------------KAGCKNFFWKTFTSC</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>XP_030072458.1 small integral membrane protein 30 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>MAGLDYTPRCLLAFLPLLGLLPTAEAMDGGNAVALLLGIIIGIFGFCVCLGYYAKKRNEQL</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>-----------------------------------L-GIIIGIFGFCVCLGYYAKKRNEQL</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>XP_030072459.1 small integral membrane protein 30 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MAGLDYTPRCLLAFLPLLGLLPTAEAMDGGNAVALLLGIIIGIFGFCVCLGYYAKKRNEQL</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>-----------------------------------L-GIIIGIFGFCVCLGYYAKKRNEQL</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>XP_030072568.1 C-type natriuretic peptide [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>MQIKHVLACGLLLAALCISLEAKPLNQQKSLRSILDKELAEYLASRDRGDKVGSLKSQSRLLRDLHIDSRSQTTWARVLNNYPNIKKRKVTNNNNKKGSTSKGCFGLKLDRIGALSNLGC</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>----------------------------------------EYLAS-DRGDKVGSLKSQSRLLRDLHIDSRSQTTWARVLNNYPNIKKRKVTNNNNKKGSTSKGCFGLKLDRIGALSNLGC</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>XP_030072570.1 unique cartilage matrix-associated protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MNRKEILLLSGLATFVLLTILQEGEGAALGSPKTDAEKTKPNPKKNIFLQDSEASNFLKRRSKRSPRSRDEVNAENRQRQAADERRREYYEEQRNEYENYAEEQHDEHQERNREHTEQWRQWHYNNMYPSYLYHRYY</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------------------------------------WRQWHYNNMYPSYLYHRYY</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.800000011920929</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>XP_030072918.1 chemokine-like protein TAFA-5 isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>MQLLKALWALAGAAICCFLVFVIHSQFLKEDLVSSVMEILDLTMFQGQLAAGTCEIVTLDRDSSQPRRTIARQTARCACKKGQIAGTTRARPACVDARIIKTKQWCEMLPCLEGEGCDLLINRSGWTCTQPGGRIKTTTGVLGGLLFQNKALLSTVLPGLLTNAATENPRRSGIGSV</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>--------------ICC--------------------------------------I------------TIARQTARCACKKGQIAGTTRARPACVDARIIKTKQWCEMLPCLEGEGCDLLINRSGWTCTQPGGRIKTTTGVLGGLLFQNKALLSTVLPGLLTNAATENPRRSGIGSV</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>XP_030072919.1 chemokine-like protein TAFA-5 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MQLLKALWALAGAAICCFLVFVIHSQFLKEDLVSSVMEILDLTMFQGQLAAGTCEIVTLDRDSSQPRRTIARQTARCACKKGQIAGTTRARPACVDARIIKTKQWCEMLPCLEGEGCDLLINRSGWTCTQPGGRIKTTTVS</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>--------------ICC-----------------------------------TCEIVT-D--------TIARQTARCACKKGQIAGTTRARPACVDARIIKTKQWCEMLPCLEGEGCDLLINRSGWTCTQPGGRIKTTTVS</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>XP_030073019.1 resistin-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MKVVGGFLLIVLLKFGFVATSPDQCTISDILSLESFCRSAVSTDLTKPQITCTTISAKGAYATCPSDHIPTSCSCGMACGSWDVQNELMCHCQCNNIDWTAARCCRINAR</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>------------------------------------CRS-VSTDLTKPQITCTTISAKGAYATCPSDHIPTSCSCGMACGSWDVQNELMCHCQCNNIDWTAARCCRINA-</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>XP_030073253.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>XP_030073254.1 histone H2A type 1-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKGK</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKG-</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>XP_030073255.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>XP_030073256.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>XP_030073257.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>XP_030073258.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLI----RGVL---LE-VIRDAVTYTEH-KRKTVTAMDVVYALK-QGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7400000095367432</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>XP_030073260.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>XP_030073399.1 histone H2B type 2-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRTRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASCLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAITKYTSSK</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>-------APAPKKGSKKAVSKTQKKDGKKRKRTRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASCLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAITKYTSSK</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>XP_030073492.1 LOW QUALITY PROTEIN: histone H3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------------------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.699999988079071</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>XP_030073493.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>XP_030073494.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKTAKSK</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY------------------AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTE-HK--KS-</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>XP_030073496.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>XP_030073497.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>XP_030073498.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>XP_030073499.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>XP_030073662.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>XP_030073663.1 histone H4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKCQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKCQGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>XP_030073839.1 histone H2A type 1-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKGK</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKG-</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>XP_030073840.1 histone H2A type 1-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKGK</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKG-</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>XP_030073841.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>XP_030073842.1 histone H2B type 2-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHVVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHVVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>XP_030073843.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>XP_030073844.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>XP_030073911.1 ubiquitin-60S ribosomal protein L40 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MQIFVKTLTGKTITLEVEPIDTIENVKAKIQDKEGIPPDQQRLIFAGKQLEDGRTLCDYNIQKESTLHLVLRLRGGIIEPSLRQLAQKYNCDKMICRKCYARLHPRAVNCRKKKCGHTNNLRPKKKVK</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------GII-PSLRQLAQKYNCDKMICRKCYARLHPRAVNCRKKKCGHTNNLRPKKKV-</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>XP_030074214.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>XP_030074273.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>XP_030074282.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>XP_030074471.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>XP_030074692.1 scavenger receptor class F member 2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MEMKQDPGKRSFPWEIGGSSLWFLLLLLCLSFGQGQELSPRGRNVCRSPGSSAGFECCPGWKQQGDDCLIPVCDGNFTCKENEVCVRPNECRCRHGYFGANCDTKCPRQFWGPDCKEMCKCYPNGQCDDVTGQCTCNPNRWGSKCENACLCKHGKCNKDTGKCTCEPSWWGPQCANACYCSSTSQCNQQTGRCLCQSGWWGRSCNTQCTCNNSPCDQFTGRCQCKERHWGPRCESYCQCFRGKCNQLDGTCTCEPGYRGKLCREPCPAGLYGQGCRKRCGQCKEQQPCTVAEGRCIACEAGWNGTKCDKVCSTGFYGEGCEKVCPPCKDGHNCNHIDGKCSHCNPGWMGDRCELKCHNGTYGENCAFVCSSCFSGDCHFETGKCLCSAGSYGLHCNATCPAGQFGVNCEQFCDCHDDRCDPVTGACRMEVNQRMGVIGAGVLVTMLLILLFCLFCCCCICRKKEGMMDTDQEQATATKAQRRLCGCFSRITMKLPCIPLHRQKLPKVVVAHHDVENTLNCSFIEPPSVVELPSPSWSSRGSFSSFDTTDEGPVYCVPHEDSVSESKEKVNSSPVEKVALPIREDEAGEYTFLKEMEASKAFQVDSSEMPLLKSSDSERSSCGSGSTGGALYAKIARLSKQSKDEDENTMDFKSATIGGKPPSPERTKPPPPDPSTKPKISWIHGKYNPNQTNSLPVMSRSSDKAVSQSVSTENSQVHVKEQNRKRTPSSTSASPPTKSEDRVVLRNKDKAHKHQKDMNLSETTEPEELQPPSRAKPRTKTSQDQMEHINGAVQNVLKKIGNFHVDKKGGEAREAPKSPNHSKSRSEVIHPHFSSEAATLLAAQLKEKTQSLNRNEDGTKQNGVGPLQAQKEKPTPPQKAKRSVANANQKSSKAVLPTTISLQKMISPVSEAIPSEDKNVEKQNSNGSQEQAPSAKQNMSDPAVKKTPIKKPPRKKSREATLDCDTKNEVKTAIMPPQTVK</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-------------------------------------------N-CRS----AGFEC------------------------------PNECRCRHGYFGANCDTKCPRQFWGPDCKEMCKCYPNGQ--DVTGQCTCNPNRWGSKCENACLCKHGKCNKDTGKCTCEPSWWGPQCANACYCSSTSQCNQQTGRCLCQSGWWGRSCNTQCTCNNSPCDQFTGRCQCKERHWGPRCESYCQCFRGKCNQLDGTCTCEPGYRGKLCREPCPAGLYGQGCRKRCGQCKEQQPCTVAEGRCIAC----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.6299999952316284</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>XP_030074751.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-------GGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVG--A---------------------AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>XP_030074752.1 histone H2A type 1-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKGK</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKG-</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>XP_030074813.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>XP_030074941.1 peptidoglycan recognition protein 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MTRLVMLLLLLSALWAIAQGCPPIISRAKWGARSTRCNQSLGRNLPYVFIHHTAGSSCNSLSTCCAQLKGIQNYHIGKKWCDIAYNFLISADGSVYEGRGWSSVGTHTSGYNSKSIAISFIGDFMKYAPTNAALYAAKSLISCAVSRGFVSSAHTLKGHRNVNPTSCPGDLLYNAIKTWPSFRA</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-----------------AQGCPPIISRAKWGARSTRCNQSLGRNLPYVFIHHTAGSSCNSLSTCCAQLKGIQNYHIGKKWCDIAYNFLISADGSVYEGRGWSSVGTHTSGYNSKSIAISFIGDFMKYAPTNAALYAAKSLISCAVSRGFVSSAHTLKGHRNVNPTSCPGDLLYNAIKTWPSFRA</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>XP_030074952.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVHLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKGK</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVH----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKG-</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>XP_030074964.1 non-histone chromosomal protein HMG-17 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MPKRKAEGDAKADKAKTKDEPQRRSARLSAKPAPPKPEPKPKKAAPKKADKLPKGKKGKADSGKEGNNPSENGEAKSDQAQKAEDAGDAK</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-------GDAKADKAKTKDEPQRRSARLSAKPAPPKPEPKPKKAAPKKADKLPKGKKGKADSGKEGNNPSE-------------------</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0.7799999713897705</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>XP_030075331.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>XP_030075332.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>XP_030075333.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>XP_030075335.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>XP_030075336.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>XP_030075337.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>XP_030075446.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>--------GKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYA----------------------------AA-D--KTRIIPRHLQLAIR-D----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>XP_030075467.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>XP_030075528.1 peptidoglycan recognition protein 1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MLHLIVVLSALCAVTLGCPSIVSRAAWGARPPRCNSPVMQSQRPMAIIHHTVTPSCYSLASCKRQLLGMQNYHMNSQKWCDIGYNFLIGEDGQVYEGRGWYRVGVHAGNVNPSSIGIAFIGNFSNRLPNSKAINAAKNLIQCAVSRNRLRSNYALRGHRNVMNTACPGNTLYRNILAWKNFRA</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>----------------GCPSIVSRAAWGARPPRCNSPVMQSQRPMAIIHHTVTPSCYSLASCKRQLLGMQNYHMNSQKWCDIGYNFLIGEDGQVYEGRGWYRVGVHAGNVNPSSIGIAFIGNFSNRLPNSKAINAAKNLIQCAVSRNRLRSNYALRGHRNVMNTACPGNTLYRNILAWKNFRA</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0.9100000262260437</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>XP_030075544.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKPKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKVAKSK</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKPKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKVAKS-</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>XP_030075570.1 cytochrome c oxidase subunit 7A1, mitochondrial [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MSSLLVLCSGLVRGFSTSNRNWIKNRVLEKQKLFQEDNGLPVHLKGGATDALLYRITMAISLAGTCLSVFQLVRASFPRKGK</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>--------------FSTSNRNWIKNRVLEKQKLFQEDNGLPVH----ATDALLYRITMAISLAGTCLSVFQLVRASFPRKG-</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>XP_030075591.1 lymphocyte antigen 6E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>MMSFLTCLLAAALSVQTAHSLVCFQCEAQTSNWNCLKPVTCPNSDDQCMTAVQFGGIGSTTAYISKGCSPICIATNLNLGVIGSATNCCNSFLCNISSATSVKVSYMAMAVSAAFLCILLRARL</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>---------------------VCFQCEAQTSNWNCLKPVTCPNSDDQCMTAVQFGGIGSTTAYISKGCSPICIATNLNLGVIGSATNCCNSFLCNISSATSVKVS-MAM-V-AAFLCILLRARL</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>XP_030075599.1 lymphocyte antigen 6E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MKLFLLCLLAAALSVKTVHSLTCFTCDNQSSNWKCLQPTKCDDSASYCMTTTTSGGIGSYTSFSMSKSCARICVPTNIDVGVAGTSVNCCQSDLCNYSSATNVKKSYLTLSVSAIFLVLLLWTGL</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>---------------------TCFTCDNQSSNWKCLQPTKCDDSASYCMTTTTSGGIGSYTSFSMSKSCARICVPTNIDVGVAGTSVNCCQSDLCNYSSATNVK-----------------WT--</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0.7699999809265137</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>XP_030075634.1 lymphocyte antigen 6E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MRLFLLFLLGSALCLHTADCLKCYTCIGAQKNSDCLQETTCSPESTHCMTNVASGAGQTVITKQCVPGCKPNQFEHIGLKASVSCCQTDLCNYSGASLRISYLTLFISVGFVGSLLRAGL</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>----------------TADCLKCYTCIGAQKNSDCLQETTCS----HCMTN-A-GAGQTVITKQCVPGCKPNQFEHIGLKASVSCCQTDLCNYSGASLRISYLTLFISVGFVGSLLRAGL</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>XP_030075657.1 zinc finger matrin-type protein 5 isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MRTLPVSSPQQAFEGPKEVGANVLRGEMGKRYFCDYCDRSFQDNLHNRKKHLNGVQHQRCKKVWYDMFRDAFTVLLEEKTKKPCRKFLQTGQCDFGSNCRFSHMTEQDIERLTAQVEEERRAKEQQEEKGSKISDSQIKAWLERRAKRKRSARSNRNLPVEAPVFQFPPGWPSVHDLPPSLHPPPPSGGTVPPNLQWG</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------PCRKFLQTGQCDFGSNCRF-----------------------------SKISDSQIKAWLERRAKRKRSARSNRNLPVEAPVFQFPPGWPSVHDLPPSLHPPPPSGGTVPPNLQW-</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>XP_030075718.1 histone H2B type 1-L [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>MPELAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>XP_030075731.1 histone H4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRRVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRRVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>XP_030075799.1 C-C motif chemokine 25 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MNLRILFSLVLVCIYFYSSNAYGNFENCCLSYAKGVRVHSLLKRVNFYRMQEVNDNCNKRAIQFYLPKRNRVICGDPQESWVKSLKHKIDRMRYQSPKNKI</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>--------------------AYGNFENCCLSYAKGVRVHSLLKRVNFYRMQEVNDNCNKRAIQFYLPKRNRVICGDPQESWVKSLKHKIDRMRYQSPKNKI</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>XP_030075801.1 histone H3-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLAIRGERA</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-------ARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLAIR----</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>XP_030075809.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>XP_030075810.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-------ARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>XP_030075813.1 histone H4-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MSGRGKGGNVLGRGGAKRHRKVLRDNIQGITKPTIRRLARLGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-----KGGNVLGRGGAKRHRKVLRDNIQGITKPTIRRLARLGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>XP_030075817.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>XP_030075818.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>XP_030075819.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>XP_030075880.1 cocaine- and amphetamine-regulated transcript protein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MASCRLALLCLAYSLFCLQAACEGSLESRSTESTDKSQEEKELIEALQDVLKKLESKRMPSLEKKLGWLPSCDAGEQCAVRKGARIGKLCSCPRGTACNFYILKCL</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------MPSL--KLGWLPSCDAGEQCAVRKGARIGKLCSCPRGTACNFYILKCL</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>XP_030075912.1 glycoprotein hormone alpha-2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>MSALNVLSLVLSLLLLVSESWNLEAIRPGCHLYSFNVTIQSNHQGTCRGAHKIHACVGYCESSAFPSKYSILLASDFKHNITSVSQCCTVSKLEKVKVMLDCSPAHQEFIEIFTAKSCQCDMCRLSRY</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>--------------------------RPGCHLYSFNVTIQSNHQGTCRGAHKIHACVGYCESSAFPSKYSILLASDFKHNITSVSQCCTVSKLEKVKVMLDCSPAHQEFIEIFTAKSCQCDMCRLSRY</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>XP_030075926.1 histone H2B type 2-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MPEPAKSAAAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>--------AAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>XP_030076048.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>XP_030076049.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>XP_030076050.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>XP_030076051.1 histone H2B 1.1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRRRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRRRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>XP_030076052.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>XP_030076062.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>XP_030076063.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>XP_030076064.1 histone H2B type 2-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRTRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRTRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>XP_030076067.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>XP_030076068.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>XP_030076086.1 syncollin [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MQLGQVFCLLPLLLAVALAQCPQPSEIKDAEGNKVCARMFEKSNAYYDQCCGGEYLDAQTGDDMPYMPLKWINRISSLVVATRCELTVWSKQPKAGNMRKFTAGITYRLKDVKKGLFGTWDNAISSYYCKCN</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>---------------------------------KVCARMFEKSNAYYDQCCGGEYLDAQTGDDMPYMPLKWINRISSLVVATRCELTVWSKQPKAGNMRKFTAGITYRLKDVKKGLFGTWDNAISSYYCKCN</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>XP_030076121.1 ubiquitin-like protein fubi and ribosomal protein S30 isoform X1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>MKTMQLFVRAQSLHTLEVSTQETVAQLKARIESLEGFDVEDQVLLLGGAPLEDEATLEECGISSLATLEVAGRMLGGKVHGSLARAGKVRGQTPKVAKQEKKKKKTGRAKRRMQYNRRFVNVVPTFGKKKGPNANS</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>------------------------------------------------------------------------RMLGGKVHGSLARAGKVRGQTPKVAKQEKKKKKTGRAKRRMQYNRRFVNVVPTFGKKKGPNANS</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>XP_030076122.1 ubiquitin-like protein fubi and ribosomal protein S30 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>MQLFVRAQSLHTLEVSTQETVAQLKARIESLEGFDVEDQVLLLGGAPLEDEATLEECGISSLATLEVAGRMLGGKVHGSLARAGKVRGQTPKVAKQEKKKKKTGRAKRRMQYNRRFVNVVPTFGKKKGPNANS</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------RMLGGKVHGSLARAGKVRGQTPKVAKQEKKKKKTGRAKRRMQYNRRFVNVVPTFGKKKGPNANS</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>XP_030076123.1 histone H2A type 1-B/E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKTKTRSSRAGLQFPVGRVHRLLRKGNYTERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGDVLPNIQAVLLLKNTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKTKTRSSRAGLQFPVGRVHRLLRKGNYTERVGAGAPV-------------------------KTRIIPRHLQLAI---------------------------------------KS-</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>XP_030076178.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>----------STGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTD-RFQ------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>XP_030076179.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>XP_030076180.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKASKSK</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY------------------AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTE--K-SKS-</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>XP_030076182.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>XP_030076183.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRL-----------------------------------------KTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>XP_030076184.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>XP_030076185.1 histone H2A type 1-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKSK</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKTRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY----------------G-AARDNKKTRIIPRHLQLAIRND----KLLGRVTIAQGGVLPNIQAVLLPKKTESHKAAKS-</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>XP_030076186.1 histone H2B type 2-E-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVNKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVNKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>XP_030076187.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>--------PAP-KGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
           <t>XP_030076189.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>-------------------------------RSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>---------------------------------------------------------KAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5200656652450562</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>XP_030076190.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>XP_030076191.1 histone H2B type 2-E [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MPEPAKSAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>------SAPAPKKGSKKAVSKTQKKDGKKRKRSRKESYAIYVYKVLKQVHPDTGISSKAMNIMNSFVNDIFERIAGEASRLAHYNKRSTITSREIQTAVRLLLPGELAKHAVSEGTKAVTKYTSSK</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>XP_030076194.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>XP_030076195.1 histone H4 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>MSGRGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALKRQGRTLYGFGG</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>---RGKGGKGLGKGGAKRHRKVLRDNIQGITKPAIRRLARRGGVKRISGLIYEETRGVLKVFLENVIRDAVTYTEHAKRKTVTAMDVVYALK-QGRTLYGFG-</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>XP_030076197.1 histone H3 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MARTKQTARKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKTDLRFQSSAVMALQEASEAYLVGLFEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>--------RKSTGGKAPRKQLATKAARKSAPATGGVKKPHRYRPGTVALREIRRYQKSTELLIRKLPFQRLVREIAQDFKT-----------------------FEDTNLCAIHAKRVTIMPKDIQLARRIRGERA</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>XP_030077042.1 histone H2A type 1-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MSGRGKQGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVYLAAVLEYLTAEILELAGNAARDNKKTRIIPRHLQLAIRNDEELNKLLGKVTIAQGGVLPNIQAVLLPKKTESHKSSKTK</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>----GKQGGKARAKAKSRSSRAGLQFPVGRVHRLLRKGNYAERVGAGAPVY------------------AARDNKKTRIIPRHLQLAIRND----KLLGKVTIAQGGVLPNIQAVLLPKKT--HK--K--</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>XP_030077303.1 prokineticin-1 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MKTAIQVCVLLVLITFARCAVITGACERDVQCGVRTCCAISLWLRGLRMCTPLGQEGEECHPFSHKVPFLGKRQHHTCPCLANLICSKFLDGRYRCSVDFKNLDFS</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>---------------------ITGACERDVQCGVRTCCAISLWLRGLRMCT---------HPFSHKVPFLGKRQHHTCPCLANLICSKFLDGRYRCSVDFKNLDF-</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>XP_030077308.1 CD59 glycoprotein-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MKHLLLAVFLAAGLCNVSTALECHFCTHSKNDEECNKGIIPCGQNKNSCIVSINVENGLLSKGCAHLSDCALASKHMKSKCCDVDLCNAKLKVNNSSMVTQSNLFLLLGAVVALLHEMVPRT</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-------------------------CT---------KGIIPCGQNKNSCIVSINVENGLLSKGCAHLSDCALASKHMKSKCCDVDLCNAKLKVNNS--------------------------</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0.7099999785423279</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>XP_030077456.1 colipase-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MRSAILLLLFILAVTFAAPQHTGLVIHLENGEPCLNSIQCDSKCCHRRNSLTHARCAPKAAESQECSPYHLNGVYYKCTCERGLTCEVGRSIVGSITNSNFGICVDPNDNVQ</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>---------------------------------CLNSIQCDSKCCHRRNSLTHARCAPKAAESQECSPYHLNGVYYKCTCERGLTCEVGRSIVGSITNSNFGICVDPNDNV-</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0.8700000047683716</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>XP_030077457.1 colipase-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>MRSAILLLLFILAVTFAAPQDKGLLTNLENGELCLNSVQCKSKCCHRRDGLSLARCAPKAAESQECSPYNLIGVYYKCTCESGLTCEVDRSIVGSITNSDFGICVDPNDNVL</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>---------------------------------CLNSVQCKSKCCHRRDGLSLARCAPKAAESQECSPYNLIGVYYKCTCESGLTCEVDRSIVGSITNSDFGICVDPNDNV-</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>XP_030077722.1 peptide YY-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MAASLKPWPAVIALLFCTLVCLGMFVDAYPPQPENPGNNASPEEIAKYMSALRHYLNLVTRQRYGKRASPAEHVLSDLLYGESTDHNSRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------------SRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>XP_030077723.1 peptide YY-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>MAASLKPWPAVIALLFCTLVCLGMFVDAYPPQPENPGNNASPEEIAKYMSALRHYLNLVTRQRYGKRASPAEHVLSDLLYGESTDHNSRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------------SRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>XP_030077724.1 peptide YY-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>MAASLKPWPAVIALLFCTLVCLGMFVDAYPPQPENPGNNASPEEIAKYMSALRHYLNLVTRQRYGKRASPAEHVLSDLLYGESTDHNSRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>----------------------------------------------------------------------------------------RPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0.6299999952316284</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>XP_030077725.1 peptide YY-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MAASLKPWPAVIALLFCTLVCLGMFVDAYPPQPENPGNNASPEEIAKYMSALRHYLNLVTRQRYGKRASPAEHVLSDLLYGESTDHNSRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------------SRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>XP_030077726.1 peptide YY-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MAASLKPWPAVIALLFCTLVCLGMFVDAYPPQPENPGNNASPEEIAKYMSALRHYLNLVTRQRYGKRASPAEHVLSDLLYGESTDHNSRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>---------------------------------------------------------------------------------------SRPRYDDSYMW</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0.6200000047683716</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>XP_030077761.1 gastrin/cholecystokinin-like peptide [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>MMKKDSSDGWMDGWISTSWLVMYMTSAVWLSFLIAMLATTALSRHTGGVHKPEASSIQRESSKRVSFEPARRDLESSPSQEQILFVSRFLCYLFLELSNKDEFMHENSVHPIKGQDYGWMDFGRRSTEDRTLDV</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-----------------SWLVMYMT--------------------T-GVHKP--------------------------------------------------------------QDYGWMDFG-----------</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0.5400000214576721</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>XP_030077784.1 colipase-like [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>MRSAILLLLFILAVTFAAPQHTGLVIHLENGELCLNSIQCDSKCCHRRNSLTHARCAPKAAESQECSPYHLNGVYYKCTCERGLTCEVGRSIVGSITNSNFGICVDPNDNVQ</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>----------------------------------LNSIQCDSKCCHRRNSLTHARCAPKAAESQECSPYHLNGVYYKCTCERGLTCEVGRSIVGSITNSNFGICVDPNDNV-</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>XP_030077811.1 small integral membrane protein 35 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MRRSTVRGLLQVNAGEYTGESGAVGAGYGEVYPRDMQFAAGPGAGMASALGLILGVSLAAMLICVVSYVLIKWHQGGWCRQSSNFIFNLDKFRHPKSVELELAPPFTISGNTSTSGYVQFHDCNM</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>--------L-----------------GYGEVYPRDMQFAAG---G-A------------AMLICVVSYVLIKWHQGGWCRQSSNFIFNLDKFRHP-------------S-NTSTSGYVQFHDCNM</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0.6399999856948853</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>XP_030077909.1 uncharacterized protein LOC115482321 isoform X2 [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MPSVVIQTERMEPAQEGAEKVAVTVNVNICPSFSGLGNCITWLCTKMKPVGKIFRGEQTTCGAVQMVLGVLCIACGGSFATASDSNYYRNSHLVRRDFAFWTGGVFLVSGVVSIINEKFPTRCWILLALLMNLDYLKTLFMSVTVLLLTTMIAELCITVYSGGYCLKSLCCKNSPEQDDKIAVESKNDSKEEPQDVMEICALTHMDTEASA</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>------------------------------PSFSGLGNCIT--------------------------------------------------------------------------------------------------------------------TVYSGGYCLKSLCCKNSPEQDDKIA-----------------------------</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>YP_009003578.1 ATP synthase F0 subunit 8 (mitochondrion) [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MPQLNPNPWFLIMLLVWMTILIIMMQKTSTYKSTSTMTPKSKQEQHNSWSWPW</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>---------------------------------------------HNSWSWPW</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>YP_009003582.1 NADH dehydrogenase subunit 4L (mitochondrion) [Microcaecilia unicolor]</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MTLTNLTIYSTFMMAMAGLTLHRTHLMSALICLEGMMLAIFIGLALWCSQMDSMSLSINPMALITLSACEASTGLAILVATNRTHGSDLIKNLNLLQC</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>----------------------------------------F-G-ALWCSQM------------------------AILVATNRTHGSDLIKNLNLLQC</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0.5799999833106995</v>
       </c>
     </row>
   </sheetData>
